--- a/Data/Fitness.xlsx
+++ b/Data/Fitness.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FSE-Education\Cooperation\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna\Cooperation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7056"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -78,7 +78,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -94,9 +94,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6222,7 +6222,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4D94-4379-BE63-57AA86CC4837}"/>
             </c:ext>
@@ -12281,7 +12281,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4D94-4379-BE63-57AA86CC4837}"/>
             </c:ext>
@@ -12295,11 +12295,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1966041455"/>
-        <c:axId val="1966039375"/>
+        <c:axId val="449298640"/>
+        <c:axId val="449301384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1966041455"/>
+        <c:axId val="449298640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -12418,12 +12418,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1966039375"/>
+        <c:crossAx val="449301384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1966039375"/>
+        <c:axId val="449301384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12536,7 +12536,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1966041455"/>
+        <c:crossAx val="449298640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13476,12 +13476,12 @@
   <dimension ref="A1:I1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13492,7 +13492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -13511,7 +13511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1E-3</v>
       </c>
@@ -13530,7 +13530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2E-3</v>
       </c>
@@ -13543,7 +13543,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -13556,7 +13556,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4.0000000000000001E-3</v>
       </c>
@@ -13569,7 +13569,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -13582,7 +13582,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6.0000000000000001E-3</v>
       </c>
@@ -13595,7 +13595,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7.0000000000000001E-3</v>
       </c>
@@ -13608,7 +13608,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8.0000000000000002E-3</v>
       </c>
@@ -13621,7 +13621,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8.9999999999999993E-3</v>
       </c>
@@ -13634,7 +13634,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0.01</v>
       </c>
@@ -13647,7 +13647,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.0999999999999999E-2</v>
       </c>
@@ -13660,7 +13660,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.2E-2</v>
       </c>
@@ -13673,7 +13673,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -13686,7 +13686,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1.4E-2</v>
       </c>
@@ -13699,7 +13699,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -13712,7 +13712,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1.6E-2</v>
       </c>
@@ -13725,7 +13725,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1.7000000000000001E-2</v>
       </c>
@@ -13738,7 +13738,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -13751,7 +13751,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1.9E-2</v>
       </c>
@@ -13764,7 +13764,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0.02</v>
       </c>
@@ -13777,7 +13777,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2.1000000000000001E-2</v>
       </c>
@@ -13790,7 +13790,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -13803,7 +13803,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2.3E-2</v>
       </c>
@@ -13816,7 +13816,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2.4E-2</v>
       </c>
@@ -13829,7 +13829,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -13842,7 +13842,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2.5999999999999999E-2</v>
       </c>
@@ -13855,7 +13855,7 @@
         <v>0.104</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2.7E-2</v>
       </c>
@@ -13868,7 +13868,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2.8000000000000001E-2</v>
       </c>
@@ -13881,7 +13881,7 @@
         <v>0.112</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2.9000000000000001E-2</v>
       </c>
@@ -13894,7 +13894,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0.03</v>
       </c>
@@ -13907,7 +13907,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>3.1E-2</v>
       </c>
@@ -13920,7 +13920,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3.2000000000000001E-2</v>
       </c>
@@ -13933,7 +13933,7 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3.3000000000000002E-2</v>
       </c>
@@ -13946,7 +13946,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>3.4000000000000002E-2</v>
       </c>
@@ -13959,7 +13959,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>3.5000000000000003E-2</v>
       </c>
@@ -13972,7 +13972,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>3.5999999999999997E-2</v>
       </c>
@@ -13985,7 +13985,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>3.6999999999999998E-2</v>
       </c>
@@ -13998,7 +13998,7 @@
         <v>0.14799999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>3.7999999999999999E-2</v>
       </c>
@@ -14011,7 +14011,7 @@
         <v>0.152</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>3.9E-2</v>
       </c>
@@ -14024,7 +14024,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>0.04</v>
       </c>
@@ -14037,7 +14037,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>4.1000000000000002E-2</v>
       </c>
@@ -14050,7 +14050,7 @@
         <v>0.16400000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>4.2000000000000003E-2</v>
       </c>
@@ -14063,7 +14063,7 @@
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>4.2999999999999997E-2</v>
       </c>
@@ -14076,7 +14076,7 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>4.3999999999999997E-2</v>
       </c>
@@ -14089,7 +14089,7 @@
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>4.4999999999999998E-2</v>
       </c>
@@ -14102,7 +14102,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>4.5999999999999999E-2</v>
       </c>
@@ -14115,7 +14115,7 @@
         <v>0.184</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>4.7E-2</v>
       </c>
@@ -14128,7 +14128,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>4.8000000000000001E-2</v>
       </c>
@@ -14141,7 +14141,7 @@
         <v>0.192</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>4.9000000000000002E-2</v>
       </c>
@@ -14154,7 +14154,7 @@
         <v>0.19600000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>0.05</v>
       </c>
@@ -14167,7 +14167,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>5.0999999999999997E-2</v>
       </c>
@@ -14180,7 +14180,7 @@
         <v>0.20399999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>5.1999999999999998E-2</v>
       </c>
@@ -14193,7 +14193,7 @@
         <v>0.20799999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>5.2999999999999999E-2</v>
       </c>
@@ -14206,7 +14206,7 @@
         <v>0.21199999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>5.3999999999999999E-2</v>
       </c>
@@ -14219,7 +14219,7 @@
         <v>0.216</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>5.5E-2</v>
       </c>
@@ -14232,7 +14232,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>5.6000000000000001E-2</v>
       </c>
@@ -14245,7 +14245,7 @@
         <v>0.224</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>5.7000000000000002E-2</v>
       </c>
@@ -14258,7 +14258,7 @@
         <v>0.22800000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>5.8000000000000003E-2</v>
       </c>
@@ -14271,7 +14271,7 @@
         <v>0.23200000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>5.8999999999999997E-2</v>
       </c>
@@ -14284,7 +14284,7 @@
         <v>0.23599999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>0.06</v>
       </c>
@@ -14297,7 +14297,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>6.0999999999999999E-2</v>
       </c>
@@ -14310,7 +14310,7 @@
         <v>0.24399999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>6.2E-2</v>
       </c>
@@ -14323,7 +14323,7 @@
         <v>0.248</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>6.3E-2</v>
       </c>
@@ -14336,7 +14336,7 @@
         <v>0.252</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>6.4000000000000001E-2</v>
       </c>
@@ -14349,7 +14349,7 @@
         <v>0.25600000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>6.5000000000000002E-2</v>
       </c>
@@ -14362,7 +14362,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>6.6000000000000003E-2</v>
       </c>
@@ -14375,7 +14375,7 @@
         <v>0.26400000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>6.7000000000000004E-2</v>
       </c>
@@ -14388,7 +14388,7 @@
         <v>0.26800000000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>6.8000000000000005E-2</v>
       </c>
@@ -14401,7 +14401,7 @@
         <v>0.27200000000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>6.9000000000000006E-2</v>
       </c>
@@ -14414,7 +14414,7 @@
         <v>0.27600000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -14427,7 +14427,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>7.0999999999999994E-2</v>
       </c>
@@ -14440,7 +14440,7 @@
         <v>0.28399999999999997</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>7.1999999999999995E-2</v>
       </c>
@@ -14453,7 +14453,7 @@
         <v>0.28799999999999998</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>7.2999999999999995E-2</v>
       </c>
@@ -14466,7 +14466,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>7.3999999999999996E-2</v>
       </c>
@@ -14479,7 +14479,7 @@
         <v>0.29599999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -14492,7 +14492,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>7.5999999999999998E-2</v>
       </c>
@@ -14505,7 +14505,7 @@
         <v>0.30399999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>7.6999999999999999E-2</v>
       </c>
@@ -14518,7 +14518,7 @@
         <v>0.308</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>7.8E-2</v>
       </c>
@@ -14531,7 +14531,7 @@
         <v>0.312</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>7.9000000000000001E-2</v>
       </c>
@@ -14544,7 +14544,7 @@
         <v>0.316</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>0.08</v>
       </c>
@@ -14557,7 +14557,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>8.1000000000000003E-2</v>
       </c>
@@ -14570,7 +14570,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>8.2000000000000003E-2</v>
       </c>
@@ -14583,7 +14583,7 @@
         <v>0.32800000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>8.3000000000000004E-2</v>
       </c>
@@ -14596,7 +14596,7 @@
         <v>0.33200000000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>8.4000000000000005E-2</v>
       </c>
@@ -14609,7 +14609,7 @@
         <v>0.33600000000000002</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>8.5000000000000006E-2</v>
       </c>
@@ -14622,7 +14622,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>8.5999999999999993E-2</v>
       </c>
@@ -14635,7 +14635,7 @@
         <v>0.34399999999999997</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>8.6999999999999994E-2</v>
       </c>
@@ -14648,7 +14648,7 @@
         <v>0.34799999999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>8.7999999999999995E-2</v>
       </c>
@@ -14661,7 +14661,7 @@
         <v>0.35199999999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>8.8999999999999996E-2</v>
       </c>
@@ -14674,7 +14674,7 @@
         <v>0.35599999999999998</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>0.09</v>
       </c>
@@ -14687,7 +14687,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>9.0999999999999998E-2</v>
       </c>
@@ -14700,7 +14700,7 @@
         <v>0.36399999999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>9.1999999999999998E-2</v>
       </c>
@@ -14713,7 +14713,7 @@
         <v>0.36799999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>9.2999999999999999E-2</v>
       </c>
@@ -14726,7 +14726,7 @@
         <v>0.372</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>9.4E-2</v>
       </c>
@@ -14739,7 +14739,7 @@
         <v>0.376</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>9.5000000000000001E-2</v>
       </c>
@@ -14752,7 +14752,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>9.6000000000000002E-2</v>
       </c>
@@ -14765,7 +14765,7 @@
         <v>0.38400000000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>9.7000000000000003E-2</v>
       </c>
@@ -14778,7 +14778,7 @@
         <v>0.38800000000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>9.8000000000000004E-2</v>
       </c>
@@ -14791,7 +14791,7 @@
         <v>0.39200000000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>9.9000000000000005E-2</v>
       </c>
@@ -14804,7 +14804,7 @@
         <v>0.39600000000000002</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>0.1</v>
       </c>
@@ -14817,7 +14817,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>0.10100000000000001</v>
       </c>
@@ -14830,7 +14830,7 @@
         <v>0.40400000000000003</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>0.10199999999999999</v>
       </c>
@@ -14843,7 +14843,7 @@
         <v>0.40799999999999997</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>0.10299999999999999</v>
       </c>
@@ -14856,7 +14856,7 @@
         <v>0.41199999999999998</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>0.104</v>
       </c>
@@ -14869,7 +14869,7 @@
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>0.105</v>
       </c>
@@ -14882,7 +14882,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>0.106</v>
       </c>
@@ -14895,7 +14895,7 @@
         <v>0.42399999999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>0.107</v>
       </c>
@@ -14908,7 +14908,7 @@
         <v>0.42799999999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>0.108</v>
       </c>
@@ -14921,7 +14921,7 @@
         <v>0.432</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>0.109</v>
       </c>
@@ -14934,7 +14934,7 @@
         <v>0.436</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>0.11</v>
       </c>
@@ -14947,7 +14947,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>0.111</v>
       </c>
@@ -14960,7 +14960,7 @@
         <v>0.44400000000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>0.112</v>
       </c>
@@ -14973,7 +14973,7 @@
         <v>0.44800000000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>0.113</v>
       </c>
@@ -14986,7 +14986,7 @@
         <v>0.45200000000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>0.114</v>
       </c>
@@ -14999,7 +14999,7 @@
         <v>0.45600000000000002</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>0.115</v>
       </c>
@@ -15012,7 +15012,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>0.11600000000000001</v>
       </c>
@@ -15025,7 +15025,7 @@
         <v>0.46400000000000002</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>0.11700000000000001</v>
       </c>
@@ -15038,7 +15038,7 @@
         <v>0.46800000000000003</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>0.11799999999999999</v>
       </c>
@@ -15051,7 +15051,7 @@
         <v>0.47199999999999998</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>0.11899999999999999</v>
       </c>
@@ -15064,7 +15064,7 @@
         <v>0.47599999999999998</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>0.12</v>
       </c>
@@ -15077,7 +15077,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>0.121</v>
       </c>
@@ -15090,7 +15090,7 @@
         <v>0.48399999999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>0.122</v>
       </c>
@@ -15103,7 +15103,7 @@
         <v>0.48799999999999999</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>0.123</v>
       </c>
@@ -15116,7 +15116,7 @@
         <v>0.49199999999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>0.124</v>
       </c>
@@ -15129,7 +15129,7 @@
         <v>0.496</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>0.125</v>
       </c>
@@ -15142,7 +15142,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>0.126</v>
       </c>
@@ -15155,7 +15155,7 @@
         <v>0.504</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>0.127</v>
       </c>
@@ -15168,7 +15168,7 @@
         <v>0.50800000000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>0.128</v>
       </c>
@@ -15181,7 +15181,7 @@
         <v>0.51200000000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>0.129</v>
       </c>
@@ -15194,7 +15194,7 @@
         <v>0.51600000000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>0.13</v>
       </c>
@@ -15207,7 +15207,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>0.13100000000000001</v>
       </c>
@@ -15220,7 +15220,7 @@
         <v>0.52400000000000002</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>0.13200000000000001</v>
       </c>
@@ -15233,7 +15233,7 @@
         <v>0.52800000000000002</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>0.13300000000000001</v>
       </c>
@@ -15246,7 +15246,7 @@
         <v>0.53200000000000003</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>0.13400000000000001</v>
       </c>
@@ -15259,7 +15259,7 @@
         <v>0.53600000000000003</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>0.13500000000000001</v>
       </c>
@@ -15272,7 +15272,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>0.13600000000000001</v>
       </c>
@@ -15285,7 +15285,7 @@
         <v>0.54400000000000004</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>0.13700000000000001</v>
       </c>
@@ -15298,7 +15298,7 @@
         <v>0.54800000000000004</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>0.13800000000000001</v>
       </c>
@@ -15311,7 +15311,7 @@
         <v>0.55200000000000005</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>0.13900000000000001</v>
       </c>
@@ -15324,7 +15324,7 @@
         <v>0.55600000000000005</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>0.14000000000000001</v>
       </c>
@@ -15337,7 +15337,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>0.14099999999999999</v>
       </c>
@@ -15350,7 +15350,7 @@
         <v>0.56399999999999995</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>0.14199999999999999</v>
       </c>
@@ -15363,7 +15363,7 @@
         <v>0.56799999999999995</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>0.14299999999999999</v>
       </c>
@@ -15376,7 +15376,7 @@
         <v>0.57199999999999995</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>0.14399999999999999</v>
       </c>
@@ -15389,7 +15389,7 @@
         <v>0.57599999999999996</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>0.14499999999999999</v>
       </c>
@@ -15402,7 +15402,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>0.14599999999999999</v>
       </c>
@@ -15415,7 +15415,7 @@
         <v>0.58399999999999996</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>0.14699999999999999</v>
       </c>
@@ -15428,7 +15428,7 @@
         <v>0.58799999999999997</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>0.14799999999999999</v>
       </c>
@@ -15441,7 +15441,7 @@
         <v>0.59199999999999997</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>0.14899999999999999</v>
       </c>
@@ -15454,7 +15454,7 @@
         <v>0.59599999999999997</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>0.15</v>
       </c>
@@ -15467,7 +15467,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>0.151</v>
       </c>
@@ -15480,7 +15480,7 @@
         <v>0.60399999999999998</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>0.152</v>
       </c>
@@ -15493,7 +15493,7 @@
         <v>0.60799999999999998</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>0.153</v>
       </c>
@@ -15506,7 +15506,7 @@
         <v>0.61199999999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>0.154</v>
       </c>
@@ -15519,7 +15519,7 @@
         <v>0.61599999999999999</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>0.155</v>
       </c>
@@ -15532,7 +15532,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>0.156</v>
       </c>
@@ -15545,7 +15545,7 @@
         <v>0.624</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>0.157</v>
       </c>
@@ -15558,7 +15558,7 @@
         <v>0.628</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>0.158</v>
       </c>
@@ -15571,7 +15571,7 @@
         <v>0.63200000000000001</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>0.159</v>
       </c>
@@ -15584,7 +15584,7 @@
         <v>0.63600000000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>0.16</v>
       </c>
@@ -15597,7 +15597,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>0.161</v>
       </c>
@@ -15610,7 +15610,7 @@
         <v>0.64400000000000002</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>0.16200000000000001</v>
       </c>
@@ -15623,7 +15623,7 @@
         <v>0.64800000000000002</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>0.16300000000000001</v>
       </c>
@@ -15636,7 +15636,7 @@
         <v>0.65200000000000002</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>0.16400000000000001</v>
       </c>
@@ -15649,7 +15649,7 @@
         <v>0.65600000000000003</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>0.16500000000000001</v>
       </c>
@@ -15662,7 +15662,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>0.16600000000000001</v>
       </c>
@@ -15675,7 +15675,7 @@
         <v>0.66400000000000003</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>0.16700000000000001</v>
       </c>
@@ -15688,7 +15688,7 @@
         <v>0.66800000000000004</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>0.16800000000000001</v>
       </c>
@@ -15701,7 +15701,7 @@
         <v>0.67200000000000004</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>0.16900000000000001</v>
       </c>
@@ -15714,7 +15714,7 @@
         <v>0.67600000000000005</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>0.17</v>
       </c>
@@ -15727,7 +15727,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>0.17100000000000001</v>
       </c>
@@ -15740,7 +15740,7 @@
         <v>0.68400000000000005</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>0.17199999999999999</v>
       </c>
@@ -15753,7 +15753,7 @@
         <v>0.68799999999999994</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>0.17299999999999999</v>
       </c>
@@ -15766,7 +15766,7 @@
         <v>0.69199999999999995</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>0.17399999999999999</v>
       </c>
@@ -15779,7 +15779,7 @@
         <v>0.69599999999999995</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>0.17499999999999999</v>
       </c>
@@ -15792,7 +15792,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>0.17599999999999999</v>
       </c>
@@ -15805,7 +15805,7 @@
         <v>0.70399999999999996</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>0.17699999999999999</v>
       </c>
@@ -15818,7 +15818,7 @@
         <v>0.70799999999999996</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>0.17799999999999999</v>
       </c>
@@ -15831,7 +15831,7 @@
         <v>0.71199999999999997</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>0.17899999999999999</v>
       </c>
@@ -15844,7 +15844,7 @@
         <v>0.71599999999999997</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>0.18</v>
       </c>
@@ -15857,7 +15857,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>0.18099999999999999</v>
       </c>
@@ -15870,7 +15870,7 @@
         <v>0.72399999999999998</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>0.182</v>
       </c>
@@ -15883,7 +15883,7 @@
         <v>0.72799999999999998</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>0.183</v>
       </c>
@@ -15896,7 +15896,7 @@
         <v>0.73199999999999998</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>0.184</v>
       </c>
@@ -15909,7 +15909,7 @@
         <v>0.73599999999999999</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>0.185</v>
       </c>
@@ -15922,7 +15922,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>0.186</v>
       </c>
@@ -15935,7 +15935,7 @@
         <v>0.74399999999999999</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>0.187</v>
       </c>
@@ -15948,7 +15948,7 @@
         <v>0.748</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>0.188</v>
       </c>
@@ -15961,7 +15961,7 @@
         <v>0.752</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>0.189</v>
       </c>
@@ -15974,7 +15974,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>0.19</v>
       </c>
@@ -15987,7 +15987,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>0.191</v>
       </c>
@@ -16000,7 +16000,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>0.192</v>
       </c>
@@ -16013,7 +16013,7 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>0.193</v>
       </c>
@@ -16026,7 +16026,7 @@
         <v>0.77200000000000002</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>0.19400000000000001</v>
       </c>
@@ -16039,7 +16039,7 @@
         <v>0.77600000000000002</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>0.19500000000000001</v>
       </c>
@@ -16052,7 +16052,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>0.19600000000000001</v>
       </c>
@@ -16065,7 +16065,7 @@
         <v>0.78400000000000003</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>0.19700000000000001</v>
       </c>
@@ -16078,7 +16078,7 @@
         <v>0.78800000000000003</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>0.19800000000000001</v>
       </c>
@@ -16091,7 +16091,7 @@
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>0.19900000000000001</v>
       </c>
@@ -16104,7 +16104,7 @@
         <v>0.79600000000000004</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>0.2</v>
       </c>
@@ -16117,7 +16117,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>0.20100000000000001</v>
       </c>
@@ -16130,7 +16130,7 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>0.20200000000000001</v>
       </c>
@@ -16143,7 +16143,7 @@
         <v>0.80800000000000005</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>0.20300000000000001</v>
       </c>
@@ -16156,7 +16156,7 @@
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>0.20399999999999999</v>
       </c>
@@ -16169,7 +16169,7 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>0.20499999999999999</v>
       </c>
@@ -16182,7 +16182,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>0.20599999999999999</v>
       </c>
@@ -16195,7 +16195,7 @@
         <v>0.82399999999999995</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>0.20699999999999999</v>
       </c>
@@ -16208,7 +16208,7 @@
         <v>0.82799999999999996</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>0.20799999999999999</v>
       </c>
@@ -16221,7 +16221,7 @@
         <v>0.83199999999999996</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>0.20899999999999999</v>
       </c>
@@ -16234,7 +16234,7 @@
         <v>0.83599999999999997</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>0.21</v>
       </c>
@@ -16247,7 +16247,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>0.21099999999999999</v>
       </c>
@@ -16260,7 +16260,7 @@
         <v>0.84399999999999997</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>0.21199999999999999</v>
       </c>
@@ -16273,7 +16273,7 @@
         <v>0.84799999999999998</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>0.21299999999999999</v>
       </c>
@@ -16286,7 +16286,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>0.214</v>
       </c>
@@ -16299,7 +16299,7 @@
         <v>0.85599999999999998</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>0.215</v>
       </c>
@@ -16312,7 +16312,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>0.216</v>
       </c>
@@ -16325,7 +16325,7 @@
         <v>0.86399999999999999</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>0.217</v>
       </c>
@@ -16338,7 +16338,7 @@
         <v>0.86799999999999999</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>0.218</v>
       </c>
@@ -16351,7 +16351,7 @@
         <v>0.872</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>0.219</v>
       </c>
@@ -16364,7 +16364,7 @@
         <v>0.876</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>0.22</v>
       </c>
@@ -16377,7 +16377,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>0.221</v>
       </c>
@@ -16390,7 +16390,7 @@
         <v>0.88400000000000001</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>0.222</v>
       </c>
@@ -16403,7 +16403,7 @@
         <v>0.88800000000000001</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>0.223</v>
       </c>
@@ -16416,7 +16416,7 @@
         <v>0.89200000000000002</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>0.224</v>
       </c>
@@ -16429,7 +16429,7 @@
         <v>0.89600000000000002</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>0.22500000000000001</v>
       </c>
@@ -16442,7 +16442,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>0.22600000000000001</v>
       </c>
@@ -16455,7 +16455,7 @@
         <v>0.90400000000000003</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>0.22700000000000001</v>
       </c>
@@ -16468,7 +16468,7 @@
         <v>0.90800000000000003</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>0.22800000000000001</v>
       </c>
@@ -16481,7 +16481,7 @@
         <v>0.91200000000000003</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>0.22900000000000001</v>
       </c>
@@ -16494,7 +16494,7 @@
         <v>0.91600000000000004</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>0.23</v>
       </c>
@@ -16507,7 +16507,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>0.23100000000000001</v>
       </c>
@@ -16520,7 +16520,7 @@
         <v>0.92400000000000004</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>0.23200000000000001</v>
       </c>
@@ -16533,7 +16533,7 @@
         <v>0.92800000000000005</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>0.23300000000000001</v>
       </c>
@@ -16546,7 +16546,7 @@
         <v>0.93200000000000005</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>0.23400000000000001</v>
       </c>
@@ -16559,7 +16559,7 @@
         <v>0.93600000000000005</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>0.23499999999999999</v>
       </c>
@@ -16572,7 +16572,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>0.23599999999999999</v>
       </c>
@@ -16585,7 +16585,7 @@
         <v>0.94399999999999995</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>0.23699999999999999</v>
       </c>
@@ -16598,7 +16598,7 @@
         <v>0.94799999999999995</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>0.23799999999999999</v>
       </c>
@@ -16611,7 +16611,7 @@
         <v>0.95199999999999996</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>0.23899999999999999</v>
       </c>
@@ -16624,7 +16624,7 @@
         <v>0.95599999999999996</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>0.24</v>
       </c>
@@ -16637,7 +16637,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>0.24099999999999999</v>
       </c>
@@ -16650,7 +16650,7 @@
         <v>0.96399999999999997</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>0.24199999999999999</v>
       </c>
@@ -16663,7 +16663,7 @@
         <v>0.96799999999999997</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>0.24299999999999999</v>
       </c>
@@ -16676,7 +16676,7 @@
         <v>0.97199999999999998</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>0.24399999999999999</v>
       </c>
@@ -16689,7 +16689,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>0.245</v>
       </c>
@@ -16702,7 +16702,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>0.246</v>
       </c>
@@ -16715,7 +16715,7 @@
         <v>0.98399999999999999</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>0.247</v>
       </c>
@@ -16728,7 +16728,7 @@
         <v>0.98799999999999999</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>0.248</v>
       </c>
@@ -16741,7 +16741,7 @@
         <v>0.99199999999999999</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>0.249</v>
       </c>
@@ -16754,7 +16754,7 @@
         <v>0.996</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>0.25</v>
       </c>
@@ -16767,7 +16767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>0.251</v>
       </c>
@@ -16780,7 +16780,7 @@
         <v>1.004</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>0.252</v>
       </c>
@@ -16793,7 +16793,7 @@
         <v>1.008</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>0.253</v>
       </c>
@@ -16806,7 +16806,7 @@
         <v>1.012</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>0.254</v>
       </c>
@@ -16819,7 +16819,7 @@
         <v>1.016</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>0.255</v>
       </c>
@@ -16832,7 +16832,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>0.25600000000000001</v>
       </c>
@@ -16845,7 +16845,7 @@
         <v>1.024</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>0.25700000000000001</v>
       </c>
@@ -16858,7 +16858,7 @@
         <v>1.028</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>0.25800000000000001</v>
       </c>
@@ -16871,7 +16871,7 @@
         <v>1.032</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>0.25900000000000001</v>
       </c>
@@ -16884,7 +16884,7 @@
         <v>1.036</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>0.26</v>
       </c>
@@ -16897,7 +16897,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>0.26100000000000001</v>
       </c>
@@ -16910,7 +16910,7 @@
         <v>1.044</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>0.26200000000000001</v>
       </c>
@@ -16923,7 +16923,7 @@
         <v>1.048</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>0.26300000000000001</v>
       </c>
@@ -16936,7 +16936,7 @@
         <v>1.052</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>0.26400000000000001</v>
       </c>
@@ -16949,7 +16949,7 @@
         <v>1.056</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>0.26500000000000001</v>
       </c>
@@ -16962,7 +16962,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>0.26600000000000001</v>
       </c>
@@ -16975,7 +16975,7 @@
         <v>1.0640000000000001</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>0.26700000000000002</v>
       </c>
@@ -16988,7 +16988,7 @@
         <v>1.0680000000000001</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>0.26800000000000002</v>
       </c>
@@ -17001,7 +17001,7 @@
         <v>1.0720000000000001</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>0.26900000000000002</v>
       </c>
@@ -17014,7 +17014,7 @@
         <v>1.0760000000000001</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>0.27</v>
       </c>
@@ -17027,7 +17027,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>0.27100000000000002</v>
       </c>
@@ -17040,7 +17040,7 @@
         <v>1.0840000000000001</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>0.27200000000000002</v>
       </c>
@@ -17053,7 +17053,7 @@
         <v>1.0880000000000001</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>0.27300000000000002</v>
       </c>
@@ -17066,7 +17066,7 @@
         <v>1.0920000000000001</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>0.27400000000000002</v>
       </c>
@@ -17079,7 +17079,7 @@
         <v>1.0960000000000001</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>0.27500000000000002</v>
       </c>
@@ -17092,7 +17092,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>0.27600000000000002</v>
       </c>
@@ -17105,7 +17105,7 @@
         <v>1.1040000000000001</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>0.27700000000000002</v>
       </c>
@@ -17118,7 +17118,7 @@
         <v>1.1080000000000001</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>0.27800000000000002</v>
       </c>
@@ -17131,7 +17131,7 @@
         <v>1.1120000000000001</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>0.27900000000000003</v>
       </c>
@@ -17144,7 +17144,7 @@
         <v>1.1160000000000001</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>0.28000000000000003</v>
       </c>
@@ -17157,7 +17157,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>0.28100000000000003</v>
       </c>
@@ -17170,7 +17170,7 @@
         <v>1.1240000000000001</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>0.28199999999999997</v>
       </c>
@@ -17183,7 +17183,7 @@
         <v>1.1279999999999999</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>0.28299999999999997</v>
       </c>
@@ -17196,7 +17196,7 @@
         <v>1.1319999999999999</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>0.28399999999999997</v>
       </c>
@@ -17209,7 +17209,7 @@
         <v>1.1359999999999999</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>0.28499999999999998</v>
       </c>
@@ -17222,7 +17222,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>0.28599999999999998</v>
       </c>
@@ -17235,7 +17235,7 @@
         <v>1.1439999999999999</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>0.28699999999999998</v>
       </c>
@@ -17248,7 +17248,7 @@
         <v>1.1479999999999999</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>0.28799999999999998</v>
       </c>
@@ -17261,7 +17261,7 @@
         <v>1.1519999999999999</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>0.28899999999999998</v>
       </c>
@@ -17274,7 +17274,7 @@
         <v>1.1559999999999999</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>0.28999999999999998</v>
       </c>
@@ -17287,7 +17287,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>0.29099999999999998</v>
       </c>
@@ -17300,7 +17300,7 @@
         <v>1.1639999999999999</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>0.29199999999999998</v>
       </c>
@@ -17313,7 +17313,7 @@
         <v>1.1679999999999999</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>0.29299999999999998</v>
       </c>
@@ -17326,7 +17326,7 @@
         <v>1.1719999999999999</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>0.29399999999999998</v>
       </c>
@@ -17339,7 +17339,7 @@
         <v>1.1759999999999999</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>0.29499999999999998</v>
       </c>
@@ -17352,7 +17352,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>0.29599999999999999</v>
       </c>
@@ -17365,7 +17365,7 @@
         <v>1.1839999999999999</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>0.29699999999999999</v>
       </c>
@@ -17378,7 +17378,7 @@
         <v>1.1879999999999999</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>0.29799999999999999</v>
       </c>
@@ -17391,7 +17391,7 @@
         <v>1.1919999999999999</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>0.29899999999999999</v>
       </c>
@@ -17404,7 +17404,7 @@
         <v>1.196</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>0.3</v>
       </c>
@@ -17417,7 +17417,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>0.30099999999999999</v>
       </c>
@@ -17430,7 +17430,7 @@
         <v>1.204</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>0.30199999999999999</v>
       </c>
@@ -17443,7 +17443,7 @@
         <v>1.208</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>0.30299999999999999</v>
       </c>
@@ -17456,7 +17456,7 @@
         <v>1.212</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>0.30399999999999999</v>
       </c>
@@ -17469,7 +17469,7 @@
         <v>1.216</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>0.30499999999999999</v>
       </c>
@@ -17482,7 +17482,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>0.30599999999999999</v>
       </c>
@@ -17495,7 +17495,7 @@
         <v>1.224</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>0.307</v>
       </c>
@@ -17508,7 +17508,7 @@
         <v>1.228</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>0.308</v>
       </c>
@@ -17521,7 +17521,7 @@
         <v>1.232</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>0.309</v>
       </c>
@@ -17534,7 +17534,7 @@
         <v>1.236</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>0.31</v>
       </c>
@@ -17547,7 +17547,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>0.311</v>
       </c>
@@ -17560,7 +17560,7 @@
         <v>1.244</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>0.312</v>
       </c>
@@ -17573,7 +17573,7 @@
         <v>1.248</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>0.313</v>
       </c>
@@ -17586,7 +17586,7 @@
         <v>1.252</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>0.314</v>
       </c>
@@ -17599,7 +17599,7 @@
         <v>1.256</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>0.315</v>
       </c>
@@ -17612,7 +17612,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>0.316</v>
       </c>
@@ -17625,7 +17625,7 @@
         <v>1.264</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>0.317</v>
       </c>
@@ -17638,7 +17638,7 @@
         <v>1.268</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>0.318</v>
       </c>
@@ -17651,7 +17651,7 @@
         <v>1.272</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>0.31900000000000001</v>
       </c>
@@ -17664,7 +17664,7 @@
         <v>1.276</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>0.32</v>
       </c>
@@ -17677,7 +17677,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>0.32100000000000001</v>
       </c>
@@ -17690,7 +17690,7 @@
         <v>1.284</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>0.32200000000000001</v>
       </c>
@@ -17703,7 +17703,7 @@
         <v>1.288</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>0.32300000000000001</v>
       </c>
@@ -17716,7 +17716,7 @@
         <v>1.292</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>0.32400000000000001</v>
       </c>
@@ -17729,7 +17729,7 @@
         <v>1.296</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>0.32500000000000001</v>
       </c>
@@ -17742,7 +17742,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>0.32600000000000001</v>
       </c>
@@ -17755,7 +17755,7 @@
         <v>1.304</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>0.32700000000000001</v>
       </c>
@@ -17768,7 +17768,7 @@
         <v>1.3080000000000001</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>0.32800000000000001</v>
       </c>
@@ -17781,7 +17781,7 @@
         <v>1.3120000000000001</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>0.32900000000000001</v>
       </c>
@@ -17794,7 +17794,7 @@
         <v>1.3160000000000001</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>0.33</v>
       </c>
@@ -17807,7 +17807,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>0.33100000000000002</v>
       </c>
@@ -17820,7 +17820,7 @@
         <v>1.3240000000000001</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>0.33200000000000002</v>
       </c>
@@ -17833,7 +17833,7 @@
         <v>1.3280000000000001</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>0.33300000000000002</v>
       </c>
@@ -17846,7 +17846,7 @@
         <v>1.3320000000000001</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>0.33400000000000002</v>
       </c>
@@ -17859,7 +17859,7 @@
         <v>1.3360000000000001</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>0.33500000000000002</v>
       </c>
@@ -17872,7 +17872,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>0.33600000000000002</v>
       </c>
@@ -17885,7 +17885,7 @@
         <v>1.3440000000000001</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>0.33700000000000002</v>
       </c>
@@ -17898,7 +17898,7 @@
         <v>1.3480000000000001</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>0.33800000000000002</v>
       </c>
@@ -17911,7 +17911,7 @@
         <v>1.3520000000000001</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>0.33900000000000002</v>
       </c>
@@ -17924,7 +17924,7 @@
         <v>1.3560000000000001</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>0.34</v>
       </c>
@@ -17937,7 +17937,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>0.34100000000000003</v>
       </c>
@@ -17950,7 +17950,7 @@
         <v>1.3640000000000001</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>0.34200000000000003</v>
       </c>
@@ -17963,7 +17963,7 @@
         <v>1.3680000000000001</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>0.34300000000000003</v>
       </c>
@@ -17976,7 +17976,7 @@
         <v>1.3720000000000001</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>0.34399999999999997</v>
       </c>
@@ -17989,7 +17989,7 @@
         <v>1.3759999999999999</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>0.34499999999999997</v>
       </c>
@@ -18002,7 +18002,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>0.34599999999999997</v>
       </c>
@@ -18015,7 +18015,7 @@
         <v>1.3839999999999999</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>0.34699999999999998</v>
       </c>
@@ -18028,7 +18028,7 @@
         <v>1.3879999999999999</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>0.34799999999999998</v>
       </c>
@@ -18041,7 +18041,7 @@
         <v>1.3919999999999999</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>0.34899999999999998</v>
       </c>
@@ -18054,7 +18054,7 @@
         <v>1.3959999999999999</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>0.35</v>
       </c>
@@ -18067,7 +18067,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>0.35099999999999998</v>
       </c>
@@ -18080,7 +18080,7 @@
         <v>1.4039999999999999</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>0.35199999999999998</v>
       </c>
@@ -18093,7 +18093,7 @@
         <v>1.4079999999999999</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>0.35299999999999998</v>
       </c>
@@ -18106,7 +18106,7 @@
         <v>1.4119999999999999</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>0.35399999999999998</v>
       </c>
@@ -18119,7 +18119,7 @@
         <v>1.4159999999999999</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>0.35499999999999998</v>
       </c>
@@ -18132,7 +18132,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>0.35599999999999998</v>
       </c>
@@ -18145,7 +18145,7 @@
         <v>1.4239999999999999</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>0.35699999999999998</v>
       </c>
@@ -18158,7 +18158,7 @@
         <v>1.4279999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>0.35799999999999998</v>
       </c>
@@ -18171,7 +18171,7 @@
         <v>1.4319999999999999</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>0.35899999999999999</v>
       </c>
@@ -18184,7 +18184,7 @@
         <v>1.4359999999999999</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>0.36</v>
       </c>
@@ -18197,7 +18197,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>0.36099999999999999</v>
       </c>
@@ -18210,7 +18210,7 @@
         <v>1.444</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>0.36199999999999999</v>
       </c>
@@ -18223,7 +18223,7 @@
         <v>1.448</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>0.36299999999999999</v>
       </c>
@@ -18236,7 +18236,7 @@
         <v>1.452</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>0.36399999999999999</v>
       </c>
@@ -18249,7 +18249,7 @@
         <v>1.456</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>0.36499999999999999</v>
       </c>
@@ -18262,7 +18262,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>0.36599999999999999</v>
       </c>
@@ -18275,7 +18275,7 @@
         <v>1.464</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>0.36699999999999999</v>
       </c>
@@ -18288,7 +18288,7 @@
         <v>1.468</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>0.36799999999999999</v>
       </c>
@@ -18301,7 +18301,7 @@
         <v>1.472</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>0.36899999999999999</v>
       </c>
@@ -18314,7 +18314,7 @@
         <v>1.476</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>0.37</v>
       </c>
@@ -18327,7 +18327,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>0.371</v>
       </c>
@@ -18340,7 +18340,7 @@
         <v>1.484</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>0.372</v>
       </c>
@@ -18353,7 +18353,7 @@
         <v>1.488</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>0.373</v>
       </c>
@@ -18366,7 +18366,7 @@
         <v>1.492</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>0.374</v>
       </c>
@@ -18379,7 +18379,7 @@
         <v>1.496</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>0.375</v>
       </c>
@@ -18392,7 +18392,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>0.376</v>
       </c>
@@ -18405,7 +18405,7 @@
         <v>1.504</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>0.377</v>
       </c>
@@ -18418,7 +18418,7 @@
         <v>1.508</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>0.378</v>
       </c>
@@ -18431,7 +18431,7 @@
         <v>1.512</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>0.379</v>
       </c>
@@ -18444,7 +18444,7 @@
         <v>1.516</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>0.38</v>
       </c>
@@ -18457,7 +18457,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>0.38100000000000001</v>
       </c>
@@ -18470,7 +18470,7 @@
         <v>1.524</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>0.38200000000000001</v>
       </c>
@@ -18483,7 +18483,7 @@
         <v>1.528</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>0.38300000000000001</v>
       </c>
@@ -18496,7 +18496,7 @@
         <v>1.532</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>0.38400000000000001</v>
       </c>
@@ -18509,7 +18509,7 @@
         <v>1.536</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>0.38500000000000001</v>
       </c>
@@ -18522,7 +18522,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>0.38600000000000001</v>
       </c>
@@ -18535,7 +18535,7 @@
         <v>1.544</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>0.38700000000000001</v>
       </c>
@@ -18548,7 +18548,7 @@
         <v>1.548</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>0.38800000000000001</v>
       </c>
@@ -18561,7 +18561,7 @@
         <v>1.552</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>0.38900000000000001</v>
       </c>
@@ -18574,7 +18574,7 @@
         <v>1.556</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>0.39</v>
       </c>
@@ -18587,7 +18587,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>0.39100000000000001</v>
       </c>
@@ -18600,7 +18600,7 @@
         <v>1.5640000000000001</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>0.39200000000000002</v>
       </c>
@@ -18613,7 +18613,7 @@
         <v>1.5680000000000001</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>0.39300000000000002</v>
       </c>
@@ -18626,7 +18626,7 @@
         <v>1.5720000000000001</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>0.39400000000000002</v>
       </c>
@@ -18639,7 +18639,7 @@
         <v>1.5760000000000001</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>0.39500000000000002</v>
       </c>
@@ -18652,7 +18652,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>0.39600000000000002</v>
       </c>
@@ -18665,7 +18665,7 @@
         <v>1.5840000000000001</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>0.39700000000000002</v>
       </c>
@@ -18678,7 +18678,7 @@
         <v>1.5880000000000001</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>0.39800000000000002</v>
       </c>
@@ -18691,7 +18691,7 @@
         <v>1.5920000000000001</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>0.39900000000000002</v>
       </c>
@@ -18704,7 +18704,7 @@
         <v>1.5960000000000001</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>0.4</v>
       </c>
@@ -18717,7 +18717,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>0.40100000000000002</v>
       </c>
@@ -18730,7 +18730,7 @@
         <v>1.6040000000000001</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>0.40200000000000002</v>
       </c>
@@ -18743,7 +18743,7 @@
         <v>1.6080000000000001</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>0.40300000000000002</v>
       </c>
@@ -18756,7 +18756,7 @@
         <v>1.6120000000000001</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>0.40400000000000003</v>
       </c>
@@ -18769,7 +18769,7 @@
         <v>1.6160000000000001</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>0.40500000000000003</v>
       </c>
@@ -18782,7 +18782,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>0.40600000000000003</v>
       </c>
@@ -18795,7 +18795,7 @@
         <v>1.6240000000000001</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>0.40699999999999997</v>
       </c>
@@ -18808,7 +18808,7 @@
         <v>1.6279999999999999</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>0.40799999999999997</v>
       </c>
@@ -18821,7 +18821,7 @@
         <v>1.6319999999999999</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>0.40899999999999997</v>
       </c>
@@ -18834,7 +18834,7 @@
         <v>1.6359999999999999</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>0.41</v>
       </c>
@@ -18847,7 +18847,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>0.41099999999999998</v>
       </c>
@@ -18860,7 +18860,7 @@
         <v>1.6439999999999999</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>0.41199999999999998</v>
       </c>
@@ -18873,7 +18873,7 @@
         <v>1.6479999999999999</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>0.41299999999999998</v>
       </c>
@@ -18886,7 +18886,7 @@
         <v>1.6519999999999999</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>0.41399999999999998</v>
       </c>
@@ -18899,7 +18899,7 @@
         <v>1.6559999999999999</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>0.41499999999999998</v>
       </c>
@@ -18912,7 +18912,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>0.41599999999999998</v>
       </c>
@@ -18925,7 +18925,7 @@
         <v>1.6639999999999999</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>0.41699999999999998</v>
       </c>
@@ -18938,7 +18938,7 @@
         <v>1.6679999999999999</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>0.41799999999999998</v>
       </c>
@@ -18951,7 +18951,7 @@
         <v>1.6719999999999999</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>0.41899999999999998</v>
       </c>
@@ -18964,7 +18964,7 @@
         <v>1.6759999999999999</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>0.42</v>
       </c>
@@ -18977,7 +18977,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>0.42099999999999999</v>
       </c>
@@ -18990,7 +18990,7 @@
         <v>1.6839999999999999</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>0.42199999999999999</v>
       </c>
@@ -19003,7 +19003,7 @@
         <v>1.6879999999999999</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>0.42299999999999999</v>
       </c>
@@ -19016,7 +19016,7 @@
         <v>1.6919999999999999</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>0.42399999999999999</v>
       </c>
@@ -19029,7 +19029,7 @@
         <v>1.696</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>0.42499999999999999</v>
       </c>
@@ -19042,7 +19042,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>0.42599999999999999</v>
       </c>
@@ -19055,7 +19055,7 @@
         <v>1.704</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>0.42699999999999999</v>
       </c>
@@ -19068,7 +19068,7 @@
         <v>1.708</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>0.42799999999999999</v>
       </c>
@@ -19081,7 +19081,7 @@
         <v>1.712</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>0.42899999999999999</v>
       </c>
@@ -19094,7 +19094,7 @@
         <v>1.716</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>0.43</v>
       </c>
@@ -19107,7 +19107,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>0.43099999999999999</v>
       </c>
@@ -19120,7 +19120,7 @@
         <v>1.724</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>0.432</v>
       </c>
@@ -19133,7 +19133,7 @@
         <v>1.728</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>0.433</v>
       </c>
@@ -19146,7 +19146,7 @@
         <v>1.732</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>0.434</v>
       </c>
@@ -19159,7 +19159,7 @@
         <v>1.736</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>0.435</v>
       </c>
@@ -19172,7 +19172,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>0.436</v>
       </c>
@@ -19185,7 +19185,7 @@
         <v>1.744</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>0.437</v>
       </c>
@@ -19198,7 +19198,7 @@
         <v>1.748</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>0.438</v>
       </c>
@@ -19211,7 +19211,7 @@
         <v>1.752</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>0.439</v>
       </c>
@@ -19224,7 +19224,7 @@
         <v>1.756</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>0.44</v>
       </c>
@@ -19237,7 +19237,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>0.441</v>
       </c>
@@ -19250,7 +19250,7 @@
         <v>1.764</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>0.442</v>
       </c>
@@ -19263,7 +19263,7 @@
         <v>1.768</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>0.443</v>
       </c>
@@ -19276,7 +19276,7 @@
         <v>1.772</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>0.44400000000000001</v>
       </c>
@@ -19289,7 +19289,7 @@
         <v>1.776</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>0.44500000000000001</v>
       </c>
@@ -19302,7 +19302,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>0.44600000000000001</v>
       </c>
@@ -19315,7 +19315,7 @@
         <v>1.784</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>0.44700000000000001</v>
       </c>
@@ -19328,7 +19328,7 @@
         <v>1.788</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>0.44800000000000001</v>
       </c>
@@ -19341,7 +19341,7 @@
         <v>1.792</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>0.44900000000000001</v>
       </c>
@@ -19354,7 +19354,7 @@
         <v>1.796</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>0.45</v>
       </c>
@@ -19367,7 +19367,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>0.45100000000000001</v>
       </c>
@@ -19380,7 +19380,7 @@
         <v>1.804</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>0.45200000000000001</v>
       </c>
@@ -19393,7 +19393,7 @@
         <v>1.8080000000000001</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>0.45300000000000001</v>
       </c>
@@ -19406,7 +19406,7 @@
         <v>1.8120000000000001</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>0.45400000000000001</v>
       </c>
@@ -19419,7 +19419,7 @@
         <v>1.8160000000000001</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>0.45500000000000002</v>
       </c>
@@ -19432,7 +19432,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>0.45600000000000002</v>
       </c>
@@ -19445,7 +19445,7 @@
         <v>1.8240000000000001</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>0.45700000000000002</v>
       </c>
@@ -19458,7 +19458,7 @@
         <v>1.8280000000000001</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>0.45800000000000002</v>
       </c>
@@ -19471,7 +19471,7 @@
         <v>1.8320000000000001</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>0.45900000000000002</v>
       </c>
@@ -19484,7 +19484,7 @@
         <v>1.8360000000000001</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>0.46</v>
       </c>
@@ -19497,7 +19497,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>0.46100000000000002</v>
       </c>
@@ -19510,7 +19510,7 @@
         <v>1.8440000000000001</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>0.46200000000000002</v>
       </c>
@@ -19523,7 +19523,7 @@
         <v>1.8480000000000001</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>0.46300000000000002</v>
       </c>
@@ -19536,7 +19536,7 @@
         <v>1.8520000000000001</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>0.46400000000000002</v>
       </c>
@@ -19549,7 +19549,7 @@
         <v>1.8560000000000001</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>0.46500000000000002</v>
       </c>
@@ -19562,7 +19562,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>0.46600000000000003</v>
       </c>
@@ -19575,7 +19575,7 @@
         <v>1.8640000000000001</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>0.46700000000000003</v>
       </c>
@@ -19588,7 +19588,7 @@
         <v>1.8680000000000001</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>0.46800000000000003</v>
       </c>
@@ -19601,7 +19601,7 @@
         <v>1.8720000000000001</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>0.46899999999999997</v>
       </c>
@@ -19614,7 +19614,7 @@
         <v>1.8759999999999999</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>0.47</v>
       </c>
@@ -19627,7 +19627,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>0.47099999999999997</v>
       </c>
@@ -19640,7 +19640,7 @@
         <v>1.8839999999999999</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>0.47199999999999998</v>
       </c>
@@ -19653,7 +19653,7 @@
         <v>1.8879999999999999</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>0.47299999999999998</v>
       </c>
@@ -19666,7 +19666,7 @@
         <v>1.8919999999999999</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>0.47399999999999998</v>
       </c>
@@ -19679,7 +19679,7 @@
         <v>1.8959999999999999</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>0.47499999999999998</v>
       </c>
@@ -19692,7 +19692,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>0.47599999999999998</v>
       </c>
@@ -19705,7 +19705,7 @@
         <v>1.9039999999999999</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>0.47699999999999998</v>
       </c>
@@ -19718,7 +19718,7 @@
         <v>1.9079999999999999</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>0.47799999999999998</v>
       </c>
@@ -19731,7 +19731,7 @@
         <v>1.9119999999999999</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>0.47899999999999998</v>
       </c>
@@ -19744,7 +19744,7 @@
         <v>1.9159999999999999</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>0.48</v>
       </c>
@@ -19757,7 +19757,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>0.48099999999999998</v>
       </c>
@@ -19770,7 +19770,7 @@
         <v>1.9239999999999999</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>0.48199999999999998</v>
       </c>
@@ -19783,7 +19783,7 @@
         <v>1.9279999999999999</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>0.48299999999999998</v>
       </c>
@@ -19796,7 +19796,7 @@
         <v>1.9319999999999999</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>0.48399999999999999</v>
       </c>
@@ -19809,7 +19809,7 @@
         <v>1.9359999999999999</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>0.48499999999999999</v>
       </c>
@@ -19822,7 +19822,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>0.48599999999999999</v>
       </c>
@@ -19835,7 +19835,7 @@
         <v>1.944</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>0.48699999999999999</v>
       </c>
@@ -19848,7 +19848,7 @@
         <v>1.948</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>0.48799999999999999</v>
       </c>
@@ -19861,7 +19861,7 @@
         <v>1.952</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>0.48899999999999999</v>
       </c>
@@ -19874,7 +19874,7 @@
         <v>1.956</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>0.49</v>
       </c>
@@ -19887,7 +19887,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>0.49099999999999999</v>
       </c>
@@ -19900,7 +19900,7 @@
         <v>1.964</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>0.49199999999999999</v>
       </c>
@@ -19913,7 +19913,7 @@
         <v>1.968</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>0.49299999999999999</v>
       </c>
@@ -19926,7 +19926,7 @@
         <v>1.972</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>0.49399999999999999</v>
       </c>
@@ -19939,7 +19939,7 @@
         <v>1.976</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>0.495</v>
       </c>
@@ -19952,7 +19952,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>0.496</v>
       </c>
@@ -19965,7 +19965,7 @@
         <v>1.984</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>0.497</v>
       </c>
@@ -19978,7 +19978,7 @@
         <v>1.988</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>0.498</v>
       </c>
@@ -19991,7 +19991,7 @@
         <v>1.992</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>0.499</v>
       </c>
@@ -20004,7 +20004,7 @@
         <v>1.996</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>0.5</v>
       </c>
@@ -20017,7 +20017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>0.501</v>
       </c>
@@ -20030,7 +20030,7 @@
         <v>2.004</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>0.502</v>
       </c>
@@ -20043,7 +20043,7 @@
         <v>2.008</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>0.503</v>
       </c>
@@ -20056,7 +20056,7 @@
         <v>2.012</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>0.504</v>
       </c>
@@ -20069,7 +20069,7 @@
         <v>2.016</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>0.505</v>
       </c>
@@ -20082,7 +20082,7 @@
         <v>2.02</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>0.50600000000000001</v>
       </c>
@@ -20095,7 +20095,7 @@
         <v>2.024</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>0.50700000000000001</v>
       </c>
@@ -20108,7 +20108,7 @@
         <v>2.028</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>0.50800000000000001</v>
       </c>
@@ -20121,7 +20121,7 @@
         <v>2.032</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>0.50900000000000001</v>
       </c>
@@ -20134,7 +20134,7 @@
         <v>2.036</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>0.51</v>
       </c>
@@ -20147,7 +20147,7 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>0.51100000000000001</v>
       </c>
@@ -20160,7 +20160,7 @@
         <v>2.044</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>0.51200000000000001</v>
       </c>
@@ -20173,7 +20173,7 @@
         <v>2.048</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>0.51300000000000001</v>
       </c>
@@ -20186,7 +20186,7 @@
         <v>2.052</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>0.51400000000000001</v>
       </c>
@@ -20199,7 +20199,7 @@
         <v>2.056</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>0.51500000000000001</v>
       </c>
@@ -20212,7 +20212,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>0.51600000000000001</v>
       </c>
@@ -20225,7 +20225,7 @@
         <v>2.0640000000000001</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>0.51700000000000002</v>
       </c>
@@ -20238,7 +20238,7 @@
         <v>2.0680000000000001</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>0.51800000000000002</v>
       </c>
@@ -20251,7 +20251,7 @@
         <v>2.0720000000000001</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>0.51900000000000002</v>
       </c>
@@ -20264,7 +20264,7 @@
         <v>2.0760000000000001</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>0.52</v>
       </c>
@@ -20277,7 +20277,7 @@
         <v>2.08</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>0.52100000000000002</v>
       </c>
@@ -20290,7 +20290,7 @@
         <v>2.0840000000000001</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>0.52200000000000002</v>
       </c>
@@ -20303,7 +20303,7 @@
         <v>2.0880000000000001</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>0.52300000000000002</v>
       </c>
@@ -20316,7 +20316,7 @@
         <v>2.0920000000000001</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>0.52400000000000002</v>
       </c>
@@ -20329,7 +20329,7 @@
         <v>2.0960000000000001</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>0.52500000000000002</v>
       </c>
@@ -20342,7 +20342,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>0.52600000000000002</v>
       </c>
@@ -20355,7 +20355,7 @@
         <v>2.1040000000000001</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>0.52700000000000002</v>
       </c>
@@ -20368,7 +20368,7 @@
         <v>2.1080000000000001</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>0.52800000000000002</v>
       </c>
@@ -20381,7 +20381,7 @@
         <v>2.1120000000000001</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>0.52900000000000003</v>
       </c>
@@ -20394,7 +20394,7 @@
         <v>2.1160000000000001</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>0.53</v>
       </c>
@@ -20407,7 +20407,7 @@
         <v>2.12</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>0.53100000000000003</v>
       </c>
@@ -20420,7 +20420,7 @@
         <v>2.1240000000000001</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>0.53200000000000003</v>
       </c>
@@ -20433,7 +20433,7 @@
         <v>2.1280000000000001</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>0.53300000000000003</v>
       </c>
@@ -20446,7 +20446,7 @@
         <v>2.1320000000000001</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>0.53400000000000003</v>
       </c>
@@ -20459,7 +20459,7 @@
         <v>2.1360000000000001</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>0.53500000000000003</v>
       </c>
@@ -20472,7 +20472,7 @@
         <v>2.14</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>0.53600000000000003</v>
       </c>
@@ -20485,7 +20485,7 @@
         <v>2.1440000000000001</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>0.53700000000000003</v>
       </c>
@@ -20498,7 +20498,7 @@
         <v>2.1480000000000001</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>0.53800000000000003</v>
       </c>
@@ -20511,7 +20511,7 @@
         <v>2.1520000000000001</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>0.53900000000000003</v>
       </c>
@@ -20524,7 +20524,7 @@
         <v>2.1560000000000001</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>0.54</v>
       </c>
@@ -20537,7 +20537,7 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>0.54100000000000004</v>
       </c>
@@ -20550,7 +20550,7 @@
         <v>2.1640000000000001</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>0.54200000000000004</v>
       </c>
@@ -20563,7 +20563,7 @@
         <v>2.1680000000000001</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>0.54300000000000004</v>
       </c>
@@ -20576,7 +20576,7 @@
         <v>2.1720000000000002</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>0.54400000000000004</v>
       </c>
@@ -20589,7 +20589,7 @@
         <v>2.1760000000000002</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>0.54500000000000004</v>
       </c>
@@ -20602,7 +20602,7 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>0.54600000000000004</v>
       </c>
@@ -20615,7 +20615,7 @@
         <v>2.1840000000000002</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>0.54700000000000004</v>
       </c>
@@ -20628,7 +20628,7 @@
         <v>2.1880000000000002</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>0.54800000000000004</v>
       </c>
@@ -20641,7 +20641,7 @@
         <v>2.1920000000000002</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>0.54900000000000004</v>
       </c>
@@ -20654,7 +20654,7 @@
         <v>2.1960000000000002</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>0.55000000000000004</v>
       </c>
@@ -20667,7 +20667,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>0.55100000000000005</v>
       </c>
@@ -20680,7 +20680,7 @@
         <v>2.2040000000000002</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>0.55200000000000005</v>
       </c>
@@ -20693,7 +20693,7 @@
         <v>2.2080000000000002</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>0.55300000000000005</v>
       </c>
@@ -20706,7 +20706,7 @@
         <v>2.2120000000000002</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>0.55400000000000005</v>
       </c>
@@ -20719,7 +20719,7 @@
         <v>2.2160000000000002</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A557">
         <v>0.55500000000000005</v>
       </c>
@@ -20732,7 +20732,7 @@
         <v>2.2200000000000002</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>0.55600000000000005</v>
       </c>
@@ -20745,7 +20745,7 @@
         <v>2.2240000000000002</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A559">
         <v>0.55700000000000005</v>
       </c>
@@ -20758,7 +20758,7 @@
         <v>2.2280000000000002</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>0.55800000000000005</v>
       </c>
@@ -20771,7 +20771,7 @@
         <v>2.2320000000000002</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A561">
         <v>0.55900000000000005</v>
       </c>
@@ -20784,7 +20784,7 @@
         <v>2.2360000000000002</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A562">
         <v>0.56000000000000005</v>
       </c>
@@ -20797,7 +20797,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A563">
         <v>0.56100000000000005</v>
       </c>
@@ -20810,7 +20810,7 @@
         <v>2.2440000000000002</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A564">
         <v>0.56200000000000006</v>
       </c>
@@ -20823,7 +20823,7 @@
         <v>2.2480000000000002</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A565">
         <v>0.56299999999999994</v>
       </c>
@@ -20836,7 +20836,7 @@
         <v>2.2519999999999998</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A566">
         <v>0.56399999999999995</v>
       </c>
@@ -20849,7 +20849,7 @@
         <v>2.2559999999999998</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A567">
         <v>0.56499999999999995</v>
       </c>
@@ -20862,7 +20862,7 @@
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A568">
         <v>0.56599999999999995</v>
       </c>
@@ -20875,7 +20875,7 @@
         <v>2.2639999999999998</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A569">
         <v>0.56699999999999995</v>
       </c>
@@ -20888,7 +20888,7 @@
         <v>2.2679999999999998</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A570">
         <v>0.56799999999999995</v>
       </c>
@@ -20901,7 +20901,7 @@
         <v>2.2719999999999998</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A571">
         <v>0.56899999999999995</v>
       </c>
@@ -20914,7 +20914,7 @@
         <v>2.2759999999999998</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A572">
         <v>0.56999999999999995</v>
       </c>
@@ -20927,7 +20927,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A573">
         <v>0.57099999999999995</v>
       </c>
@@ -20940,7 +20940,7 @@
         <v>2.2839999999999998</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A574">
         <v>0.57199999999999995</v>
       </c>
@@ -20953,7 +20953,7 @@
         <v>2.2879999999999998</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A575">
         <v>0.57299999999999995</v>
       </c>
@@ -20966,7 +20966,7 @@
         <v>2.2919999999999998</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A576">
         <v>0.57399999999999995</v>
       </c>
@@ -20979,7 +20979,7 @@
         <v>2.2959999999999998</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A577">
         <v>0.57499999999999996</v>
       </c>
@@ -20992,7 +20992,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A578">
         <v>0.57599999999999996</v>
       </c>
@@ -21005,7 +21005,7 @@
         <v>2.3039999999999998</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A579">
         <v>0.57699999999999996</v>
       </c>
@@ -21018,7 +21018,7 @@
         <v>2.3079999999999998</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A580">
         <v>0.57799999999999996</v>
       </c>
@@ -21031,7 +21031,7 @@
         <v>2.3119999999999998</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A581">
         <v>0.57899999999999996</v>
       </c>
@@ -21044,7 +21044,7 @@
         <v>2.3159999999999998</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A582">
         <v>0.57999999999999996</v>
       </c>
@@ -21057,7 +21057,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A583">
         <v>0.58099999999999996</v>
       </c>
@@ -21070,7 +21070,7 @@
         <v>2.3239999999999998</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A584">
         <v>0.58199999999999996</v>
       </c>
@@ -21083,7 +21083,7 @@
         <v>2.3279999999999998</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A585">
         <v>0.58299999999999996</v>
       </c>
@@ -21096,7 +21096,7 @@
         <v>2.3319999999999999</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A586">
         <v>0.58399999999999996</v>
       </c>
@@ -21109,7 +21109,7 @@
         <v>2.3359999999999999</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A587">
         <v>0.58499999999999996</v>
       </c>
@@ -21122,7 +21122,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A588">
         <v>0.58599999999999997</v>
       </c>
@@ -21135,7 +21135,7 @@
         <v>2.3439999999999999</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A589">
         <v>0.58699999999999997</v>
       </c>
@@ -21148,7 +21148,7 @@
         <v>2.3479999999999999</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A590">
         <v>0.58799999999999997</v>
       </c>
@@ -21161,7 +21161,7 @@
         <v>2.3519999999999999</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A591">
         <v>0.58899999999999997</v>
       </c>
@@ -21174,7 +21174,7 @@
         <v>2.3559999999999999</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A592">
         <v>0.59</v>
       </c>
@@ -21187,7 +21187,7 @@
         <v>2.36</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A593">
         <v>0.59099999999999997</v>
       </c>
@@ -21200,7 +21200,7 @@
         <v>2.3639999999999999</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A594">
         <v>0.59199999999999997</v>
       </c>
@@ -21213,7 +21213,7 @@
         <v>2.3679999999999999</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A595">
         <v>0.59299999999999997</v>
       </c>
@@ -21226,7 +21226,7 @@
         <v>2.3719999999999999</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A596">
         <v>0.59399999999999997</v>
       </c>
@@ -21239,7 +21239,7 @@
         <v>2.3759999999999999</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A597">
         <v>0.59499999999999997</v>
       </c>
@@ -21252,7 +21252,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A598">
         <v>0.59599999999999997</v>
       </c>
@@ -21265,7 +21265,7 @@
         <v>2.3839999999999999</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A599">
         <v>0.59699999999999998</v>
       </c>
@@ -21278,7 +21278,7 @@
         <v>2.3879999999999999</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A600">
         <v>0.59799999999999998</v>
       </c>
@@ -21291,7 +21291,7 @@
         <v>2.3919999999999999</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A601">
         <v>0.59899999999999998</v>
       </c>
@@ -21304,7 +21304,7 @@
         <v>2.3959999999999999</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A602">
         <v>0.6</v>
       </c>
@@ -21317,7 +21317,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A603">
         <v>0.60099999999999998</v>
       </c>
@@ -21330,7 +21330,7 @@
         <v>2.4039999999999999</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A604">
         <v>0.60199999999999998</v>
       </c>
@@ -21343,7 +21343,7 @@
         <v>2.4079999999999999</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A605">
         <v>0.60299999999999998</v>
       </c>
@@ -21356,7 +21356,7 @@
         <v>2.4119999999999999</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A606">
         <v>0.60399999999999998</v>
       </c>
@@ -21369,7 +21369,7 @@
         <v>2.4159999999999999</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A607">
         <v>0.60499999999999998</v>
       </c>
@@ -21382,7 +21382,7 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A608">
         <v>0.60599999999999998</v>
       </c>
@@ -21395,7 +21395,7 @@
         <v>2.4239999999999999</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A609">
         <v>0.60699999999999998</v>
       </c>
@@ -21408,7 +21408,7 @@
         <v>2.4279999999999999</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A610">
         <v>0.60799999999999998</v>
       </c>
@@ -21421,7 +21421,7 @@
         <v>2.4319999999999999</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A611">
         <v>0.60899999999999999</v>
       </c>
@@ -21434,7 +21434,7 @@
         <v>2.4359999999999999</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A612">
         <v>0.61</v>
       </c>
@@ -21447,7 +21447,7 @@
         <v>2.44</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A613">
         <v>0.61099999999999999</v>
       </c>
@@ -21460,7 +21460,7 @@
         <v>2.444</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A614">
         <v>0.61199999999999999</v>
       </c>
@@ -21473,7 +21473,7 @@
         <v>2.448</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A615">
         <v>0.61299999999999999</v>
       </c>
@@ -21486,7 +21486,7 @@
         <v>2.452</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A616">
         <v>0.61399999999999999</v>
       </c>
@@ -21499,7 +21499,7 @@
         <v>2.456</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A617">
         <v>0.61499999999999999</v>
       </c>
@@ -21512,7 +21512,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A618">
         <v>0.61599999999999999</v>
       </c>
@@ -21525,7 +21525,7 @@
         <v>2.464</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A619">
         <v>0.61699999999999999</v>
       </c>
@@ -21538,7 +21538,7 @@
         <v>2.468</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A620">
         <v>0.61799999999999999</v>
       </c>
@@ -21551,7 +21551,7 @@
         <v>2.472</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A621">
         <v>0.61899999999999999</v>
       </c>
@@ -21564,7 +21564,7 @@
         <v>2.476</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A622">
         <v>0.62</v>
       </c>
@@ -21577,7 +21577,7 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A623">
         <v>0.621</v>
       </c>
@@ -21590,7 +21590,7 @@
         <v>2.484</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A624">
         <v>0.622</v>
       </c>
@@ -21603,7 +21603,7 @@
         <v>2.488</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A625">
         <v>0.623</v>
       </c>
@@ -21616,7 +21616,7 @@
         <v>2.492</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A626">
         <v>0.624</v>
       </c>
@@ -21629,7 +21629,7 @@
         <v>2.496</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A627">
         <v>0.625</v>
       </c>
@@ -21642,7 +21642,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A628">
         <v>0.626</v>
       </c>
@@ -21655,7 +21655,7 @@
         <v>2.504</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A629">
         <v>0.627</v>
       </c>
@@ -21668,7 +21668,7 @@
         <v>2.508</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A630">
         <v>0.628</v>
       </c>
@@ -21681,7 +21681,7 @@
         <v>2.512</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A631">
         <v>0.629</v>
       </c>
@@ -21694,7 +21694,7 @@
         <v>2.516</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A632">
         <v>0.63</v>
       </c>
@@ -21707,7 +21707,7 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A633">
         <v>0.63100000000000001</v>
       </c>
@@ -21720,7 +21720,7 @@
         <v>2.524</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A634">
         <v>0.63200000000000001</v>
       </c>
@@ -21733,7 +21733,7 @@
         <v>2.528</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A635">
         <v>0.63300000000000001</v>
       </c>
@@ -21746,7 +21746,7 @@
         <v>2.532</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A636">
         <v>0.63400000000000001</v>
       </c>
@@ -21759,7 +21759,7 @@
         <v>2.536</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A637">
         <v>0.63500000000000001</v>
       </c>
@@ -21772,7 +21772,7 @@
         <v>2.54</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A638">
         <v>0.63600000000000001</v>
       </c>
@@ -21785,7 +21785,7 @@
         <v>2.544</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A639">
         <v>0.63700000000000001</v>
       </c>
@@ -21798,7 +21798,7 @@
         <v>2.548</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A640">
         <v>0.63800000000000001</v>
       </c>
@@ -21811,7 +21811,7 @@
         <v>2.552</v>
       </c>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A641">
         <v>0.63900000000000001</v>
       </c>
@@ -21824,7 +21824,7 @@
         <v>2.556</v>
       </c>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A642">
         <v>0.64</v>
       </c>
@@ -21837,7 +21837,7 @@
         <v>2.56</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A643">
         <v>0.64100000000000001</v>
       </c>
@@ -21850,7 +21850,7 @@
         <v>2.5640000000000001</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A644">
         <v>0.64200000000000002</v>
       </c>
@@ -21863,7 +21863,7 @@
         <v>2.5680000000000001</v>
       </c>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A645">
         <v>0.64300000000000002</v>
       </c>
@@ -21876,7 +21876,7 @@
         <v>2.5720000000000001</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A646">
         <v>0.64400000000000002</v>
       </c>
@@ -21889,7 +21889,7 @@
         <v>2.5760000000000001</v>
       </c>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A647">
         <v>0.64500000000000002</v>
       </c>
@@ -21902,7 +21902,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A648">
         <v>0.64600000000000002</v>
       </c>
@@ -21915,7 +21915,7 @@
         <v>2.5840000000000001</v>
       </c>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A649">
         <v>0.64700000000000002</v>
       </c>
@@ -21928,7 +21928,7 @@
         <v>2.5880000000000001</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A650">
         <v>0.64800000000000002</v>
       </c>
@@ -21941,7 +21941,7 @@
         <v>2.5920000000000001</v>
       </c>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A651">
         <v>0.64900000000000002</v>
       </c>
@@ -21954,7 +21954,7 @@
         <v>2.5960000000000001</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A652">
         <v>0.65</v>
       </c>
@@ -21967,7 +21967,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A653">
         <v>0.65100000000000002</v>
       </c>
@@ -21980,7 +21980,7 @@
         <v>2.6040000000000001</v>
       </c>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A654">
         <v>0.65200000000000002</v>
       </c>
@@ -21993,7 +21993,7 @@
         <v>2.6080000000000001</v>
       </c>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A655">
         <v>0.65300000000000002</v>
       </c>
@@ -22006,7 +22006,7 @@
         <v>2.6120000000000001</v>
       </c>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A656">
         <v>0.65400000000000003</v>
       </c>
@@ -22019,7 +22019,7 @@
         <v>2.6160000000000001</v>
       </c>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A657">
         <v>0.65500000000000003</v>
       </c>
@@ -22032,7 +22032,7 @@
         <v>2.62</v>
       </c>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A658">
         <v>0.65600000000000003</v>
       </c>
@@ -22045,7 +22045,7 @@
         <v>2.6240000000000001</v>
       </c>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A659">
         <v>0.65700000000000003</v>
       </c>
@@ -22058,7 +22058,7 @@
         <v>2.6280000000000001</v>
       </c>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A660">
         <v>0.65800000000000003</v>
       </c>
@@ -22071,7 +22071,7 @@
         <v>2.6320000000000001</v>
       </c>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A661">
         <v>0.65900000000000003</v>
       </c>
@@ -22084,7 +22084,7 @@
         <v>2.6360000000000001</v>
       </c>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A662">
         <v>0.66</v>
       </c>
@@ -22097,7 +22097,7 @@
         <v>2.64</v>
       </c>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A663">
         <v>0.66100000000000003</v>
       </c>
@@ -22110,7 +22110,7 @@
         <v>2.6440000000000001</v>
       </c>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A664">
         <v>0.66200000000000003</v>
       </c>
@@ -22123,7 +22123,7 @@
         <v>2.6480000000000001</v>
       </c>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A665">
         <v>0.66300000000000003</v>
       </c>
@@ -22136,7 +22136,7 @@
         <v>2.6520000000000001</v>
       </c>
     </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A666">
         <v>0.66400000000000003</v>
       </c>
@@ -22149,7 +22149,7 @@
         <v>2.6560000000000001</v>
       </c>
     </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A667">
         <v>0.66500000000000004</v>
       </c>
@@ -22162,7 +22162,7 @@
         <v>2.66</v>
       </c>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A668">
         <v>0.66600000000000004</v>
       </c>
@@ -22175,7 +22175,7 @@
         <v>2.6640000000000001</v>
       </c>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A669">
         <v>0.66700000000000004</v>
       </c>
@@ -22188,7 +22188,7 @@
         <v>2.6680000000000001</v>
       </c>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A670">
         <v>0.66800000000000004</v>
       </c>
@@ -22201,7 +22201,7 @@
         <v>2.6720000000000002</v>
       </c>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A671">
         <v>0.66900000000000004</v>
       </c>
@@ -22214,7 +22214,7 @@
         <v>2.6760000000000002</v>
       </c>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A672">
         <v>0.67</v>
       </c>
@@ -22227,7 +22227,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A673">
         <v>0.67100000000000004</v>
       </c>
@@ -22240,7 +22240,7 @@
         <v>2.6840000000000002</v>
       </c>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A674">
         <v>0.67200000000000004</v>
       </c>
@@ -22253,7 +22253,7 @@
         <v>2.6880000000000002</v>
       </c>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A675">
         <v>0.67300000000000004</v>
       </c>
@@ -22266,7 +22266,7 @@
         <v>2.6920000000000002</v>
       </c>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A676">
         <v>0.67400000000000004</v>
       </c>
@@ -22279,7 +22279,7 @@
         <v>2.6960000000000002</v>
       </c>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A677">
         <v>0.67500000000000004</v>
       </c>
@@ -22292,7 +22292,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A678">
         <v>0.67600000000000005</v>
       </c>
@@ -22305,7 +22305,7 @@
         <v>2.7040000000000002</v>
       </c>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A679">
         <v>0.67700000000000005</v>
       </c>
@@ -22318,7 +22318,7 @@
         <v>2.7080000000000002</v>
       </c>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A680">
         <v>0.67800000000000005</v>
       </c>
@@ -22331,7 +22331,7 @@
         <v>2.7120000000000002</v>
       </c>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A681">
         <v>0.67900000000000005</v>
       </c>
@@ -22344,7 +22344,7 @@
         <v>2.7160000000000002</v>
       </c>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A682">
         <v>0.68</v>
       </c>
@@ -22357,7 +22357,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A683">
         <v>0.68100000000000005</v>
       </c>
@@ -22370,7 +22370,7 @@
         <v>2.7240000000000002</v>
       </c>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A684">
         <v>0.68200000000000005</v>
       </c>
@@ -22383,7 +22383,7 @@
         <v>2.7280000000000002</v>
       </c>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A685">
         <v>0.68300000000000005</v>
       </c>
@@ -22396,7 +22396,7 @@
         <v>2.7320000000000002</v>
       </c>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A686">
         <v>0.68400000000000005</v>
       </c>
@@ -22409,7 +22409,7 @@
         <v>2.7360000000000002</v>
       </c>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A687">
         <v>0.68500000000000005</v>
       </c>
@@ -22422,7 +22422,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A688">
         <v>0.68600000000000005</v>
       </c>
@@ -22435,7 +22435,7 @@
         <v>2.7440000000000002</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A689">
         <v>0.68700000000000006</v>
       </c>
@@ -22448,7 +22448,7 @@
         <v>2.7480000000000002</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A690">
         <v>0.68799999999999994</v>
       </c>
@@ -22461,7 +22461,7 @@
         <v>2.7519999999999998</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A691">
         <v>0.68899999999999995</v>
       </c>
@@ -22474,7 +22474,7 @@
         <v>2.7559999999999998</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A692">
         <v>0.69</v>
       </c>
@@ -22487,7 +22487,7 @@
         <v>2.76</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A693">
         <v>0.69099999999999995</v>
       </c>
@@ -22500,7 +22500,7 @@
         <v>2.7639999999999998</v>
       </c>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A694">
         <v>0.69199999999999995</v>
       </c>
@@ -22513,7 +22513,7 @@
         <v>2.7679999999999998</v>
       </c>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A695">
         <v>0.69299999999999995</v>
       </c>
@@ -22526,7 +22526,7 @@
         <v>2.7719999999999998</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A696">
         <v>0.69399999999999995</v>
       </c>
@@ -22539,7 +22539,7 @@
         <v>2.7759999999999998</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A697">
         <v>0.69499999999999995</v>
       </c>
@@ -22552,7 +22552,7 @@
         <v>2.78</v>
       </c>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A698">
         <v>0.69599999999999995</v>
       </c>
@@ -22565,7 +22565,7 @@
         <v>2.7839999999999998</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A699">
         <v>0.69699999999999995</v>
       </c>
@@ -22578,7 +22578,7 @@
         <v>2.7879999999999998</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A700">
         <v>0.69799999999999995</v>
       </c>
@@ -22591,7 +22591,7 @@
         <v>2.7919999999999998</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A701">
         <v>0.69899999999999995</v>
       </c>
@@ -22604,7 +22604,7 @@
         <v>2.7959999999999998</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A702">
         <v>0.7</v>
       </c>
@@ -22617,7 +22617,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A703">
         <v>0.70099999999999996</v>
       </c>
@@ -22630,7 +22630,7 @@
         <v>2.8039999999999998</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A704">
         <v>0.70199999999999996</v>
       </c>
@@ -22643,7 +22643,7 @@
         <v>2.8079999999999998</v>
       </c>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A705">
         <v>0.70299999999999996</v>
       </c>
@@ -22656,7 +22656,7 @@
         <v>2.8119999999999998</v>
       </c>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A706">
         <v>0.70399999999999996</v>
       </c>
@@ -22669,7 +22669,7 @@
         <v>2.8159999999999998</v>
       </c>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A707">
         <v>0.70499999999999996</v>
       </c>
@@ -22682,7 +22682,7 @@
         <v>2.82</v>
       </c>
     </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A708">
         <v>0.70599999999999996</v>
       </c>
@@ -22695,7 +22695,7 @@
         <v>2.8239999999999998</v>
       </c>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A709">
         <v>0.70699999999999996</v>
       </c>
@@ -22708,7 +22708,7 @@
         <v>2.8279999999999998</v>
       </c>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A710">
         <v>0.70799999999999996</v>
       </c>
@@ -22721,7 +22721,7 @@
         <v>2.8319999999999999</v>
       </c>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A711">
         <v>0.70899999999999996</v>
       </c>
@@ -22734,7 +22734,7 @@
         <v>2.8359999999999999</v>
       </c>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A712">
         <v>0.71</v>
       </c>
@@ -22747,7 +22747,7 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A713">
         <v>0.71099999999999997</v>
       </c>
@@ -22760,7 +22760,7 @@
         <v>2.8439999999999999</v>
       </c>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A714">
         <v>0.71199999999999997</v>
       </c>
@@ -22773,7 +22773,7 @@
         <v>2.8479999999999999</v>
       </c>
     </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A715">
         <v>0.71299999999999997</v>
       </c>
@@ -22786,7 +22786,7 @@
         <v>2.8519999999999999</v>
       </c>
     </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A716">
         <v>0.71399999999999997</v>
       </c>
@@ -22799,7 +22799,7 @@
         <v>2.8559999999999999</v>
       </c>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A717">
         <v>0.71499999999999997</v>
       </c>
@@ -22812,7 +22812,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A718">
         <v>0.71599999999999997</v>
       </c>
@@ -22825,7 +22825,7 @@
         <v>2.8639999999999999</v>
       </c>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A719">
         <v>0.71699999999999997</v>
       </c>
@@ -22838,7 +22838,7 @@
         <v>2.8679999999999999</v>
       </c>
     </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A720">
         <v>0.71799999999999997</v>
       </c>
@@ -22851,7 +22851,7 @@
         <v>2.8719999999999999</v>
       </c>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A721">
         <v>0.71899999999999997</v>
       </c>
@@ -22864,7 +22864,7 @@
         <v>2.8759999999999999</v>
       </c>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A722">
         <v>0.72</v>
       </c>
@@ -22877,7 +22877,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A723">
         <v>0.72099999999999997</v>
       </c>
@@ -22890,7 +22890,7 @@
         <v>2.8839999999999999</v>
       </c>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A724">
         <v>0.72199999999999998</v>
       </c>
@@ -22903,7 +22903,7 @@
         <v>2.8879999999999999</v>
       </c>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A725">
         <v>0.72299999999999998</v>
       </c>
@@ -22916,7 +22916,7 @@
         <v>2.8919999999999999</v>
       </c>
     </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A726">
         <v>0.72399999999999998</v>
       </c>
@@ -22929,7 +22929,7 @@
         <v>2.8959999999999999</v>
       </c>
     </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A727">
         <v>0.72499999999999998</v>
       </c>
@@ -22942,7 +22942,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A728">
         <v>0.72599999999999998</v>
       </c>
@@ -22955,7 +22955,7 @@
         <v>2.9039999999999999</v>
       </c>
     </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A729">
         <v>0.72699999999999998</v>
       </c>
@@ -22968,7 +22968,7 @@
         <v>2.9079999999999999</v>
       </c>
     </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A730">
         <v>0.72799999999999998</v>
       </c>
@@ -22981,7 +22981,7 @@
         <v>2.9119999999999999</v>
       </c>
     </row>
-    <row r="731" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A731">
         <v>0.72899999999999998</v>
       </c>
@@ -22994,7 +22994,7 @@
         <v>2.9159999999999999</v>
       </c>
     </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A732">
         <v>0.73</v>
       </c>
@@ -23007,7 +23007,7 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A733">
         <v>0.73099999999999998</v>
       </c>
@@ -23020,7 +23020,7 @@
         <v>2.9239999999999999</v>
       </c>
     </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A734">
         <v>0.73199999999999998</v>
       </c>
@@ -23033,7 +23033,7 @@
         <v>2.9279999999999999</v>
       </c>
     </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A735">
         <v>0.73299999999999998</v>
       </c>
@@ -23046,7 +23046,7 @@
         <v>2.9319999999999999</v>
       </c>
     </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A736">
         <v>0.73399999999999999</v>
       </c>
@@ -23059,7 +23059,7 @@
         <v>2.9359999999999999</v>
       </c>
     </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A737">
         <v>0.73499999999999999</v>
       </c>
@@ -23072,7 +23072,7 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A738">
         <v>0.73599999999999999</v>
       </c>
@@ -23085,7 +23085,7 @@
         <v>2.944</v>
       </c>
     </row>
-    <row r="739" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A739">
         <v>0.73699999999999999</v>
       </c>
@@ -23098,7 +23098,7 @@
         <v>2.948</v>
       </c>
     </row>
-    <row r="740" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A740">
         <v>0.73799999999999999</v>
       </c>
@@ -23111,7 +23111,7 @@
         <v>2.952</v>
       </c>
     </row>
-    <row r="741" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A741">
         <v>0.73899999999999999</v>
       </c>
@@ -23124,7 +23124,7 @@
         <v>2.956</v>
       </c>
     </row>
-    <row r="742" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A742">
         <v>0.74</v>
       </c>
@@ -23137,7 +23137,7 @@
         <v>2.96</v>
       </c>
     </row>
-    <row r="743" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A743">
         <v>0.74099999999999999</v>
       </c>
@@ -23150,7 +23150,7 @@
         <v>2.964</v>
       </c>
     </row>
-    <row r="744" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A744">
         <v>0.74199999999999999</v>
       </c>
@@ -23163,7 +23163,7 @@
         <v>2.968</v>
       </c>
     </row>
-    <row r="745" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A745">
         <v>0.74299999999999999</v>
       </c>
@@ -23176,7 +23176,7 @@
         <v>2.972</v>
       </c>
     </row>
-    <row r="746" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A746">
         <v>0.74399999999999999</v>
       </c>
@@ -23189,7 +23189,7 @@
         <v>2.976</v>
       </c>
     </row>
-    <row r="747" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A747">
         <v>0.745</v>
       </c>
@@ -23202,7 +23202,7 @@
         <v>2.98</v>
       </c>
     </row>
-    <row r="748" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A748">
         <v>0.746</v>
       </c>
@@ -23215,7 +23215,7 @@
         <v>2.984</v>
       </c>
     </row>
-    <row r="749" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A749">
         <v>0.747</v>
       </c>
@@ -23228,7 +23228,7 @@
         <v>2.988</v>
       </c>
     </row>
-    <row r="750" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A750">
         <v>0.748</v>
       </c>
@@ -23241,7 +23241,7 @@
         <v>2.992</v>
       </c>
     </row>
-    <row r="751" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A751">
         <v>0.749</v>
       </c>
@@ -23254,7 +23254,7 @@
         <v>2.996</v>
       </c>
     </row>
-    <row r="752" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A752">
         <v>0.75</v>
       </c>
@@ -23267,7 +23267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="753" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A753">
         <v>0.751</v>
       </c>
@@ -23280,7 +23280,7 @@
         <v>3.004</v>
       </c>
     </row>
-    <row r="754" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A754">
         <v>0.752</v>
       </c>
@@ -23293,7 +23293,7 @@
         <v>3.008</v>
       </c>
     </row>
-    <row r="755" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A755">
         <v>0.753</v>
       </c>
@@ -23306,7 +23306,7 @@
         <v>3.012</v>
       </c>
     </row>
-    <row r="756" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A756">
         <v>0.754</v>
       </c>
@@ -23319,7 +23319,7 @@
         <v>3.016</v>
       </c>
     </row>
-    <row r="757" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A757">
         <v>0.755</v>
       </c>
@@ -23332,7 +23332,7 @@
         <v>3.02</v>
       </c>
     </row>
-    <row r="758" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A758">
         <v>0.75600000000000001</v>
       </c>
@@ -23345,7 +23345,7 @@
         <v>3.024</v>
       </c>
     </row>
-    <row r="759" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A759">
         <v>0.75700000000000001</v>
       </c>
@@ -23358,7 +23358,7 @@
         <v>3.028</v>
       </c>
     </row>
-    <row r="760" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A760">
         <v>0.75800000000000001</v>
       </c>
@@ -23371,7 +23371,7 @@
         <v>3.032</v>
       </c>
     </row>
-    <row r="761" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A761">
         <v>0.75900000000000001</v>
       </c>
@@ -23384,7 +23384,7 @@
         <v>3.036</v>
       </c>
     </row>
-    <row r="762" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A762">
         <v>0.76</v>
       </c>
@@ -23397,7 +23397,7 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="763" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A763">
         <v>0.76100000000000001</v>
       </c>
@@ -23410,7 +23410,7 @@
         <v>3.044</v>
       </c>
     </row>
-    <row r="764" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A764">
         <v>0.76200000000000001</v>
       </c>
@@ -23423,7 +23423,7 @@
         <v>3.048</v>
       </c>
     </row>
-    <row r="765" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A765">
         <v>0.76300000000000001</v>
       </c>
@@ -23436,7 +23436,7 @@
         <v>3.052</v>
       </c>
     </row>
-    <row r="766" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A766">
         <v>0.76400000000000001</v>
       </c>
@@ -23449,7 +23449,7 @@
         <v>3.056</v>
       </c>
     </row>
-    <row r="767" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A767">
         <v>0.76500000000000001</v>
       </c>
@@ -23462,7 +23462,7 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="768" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A768">
         <v>0.76600000000000001</v>
       </c>
@@ -23475,7 +23475,7 @@
         <v>3.0640000000000001</v>
       </c>
     </row>
-    <row r="769" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A769">
         <v>0.76700000000000002</v>
       </c>
@@ -23488,7 +23488,7 @@
         <v>3.0680000000000001</v>
       </c>
     </row>
-    <row r="770" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A770">
         <v>0.76800000000000002</v>
       </c>
@@ -23501,7 +23501,7 @@
         <v>3.0720000000000001</v>
       </c>
     </row>
-    <row r="771" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A771">
         <v>0.76900000000000002</v>
       </c>
@@ -23514,7 +23514,7 @@
         <v>3.0760000000000001</v>
       </c>
     </row>
-    <row r="772" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A772">
         <v>0.77</v>
       </c>
@@ -23527,7 +23527,7 @@
         <v>3.08</v>
       </c>
     </row>
-    <row r="773" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A773">
         <v>0.77100000000000002</v>
       </c>
@@ -23540,7 +23540,7 @@
         <v>3.0840000000000001</v>
       </c>
     </row>
-    <row r="774" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A774">
         <v>0.77200000000000002</v>
       </c>
@@ -23553,7 +23553,7 @@
         <v>3.0880000000000001</v>
       </c>
     </row>
-    <row r="775" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A775">
         <v>0.77300000000000002</v>
       </c>
@@ -23566,7 +23566,7 @@
         <v>3.0920000000000001</v>
       </c>
     </row>
-    <row r="776" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A776">
         <v>0.77400000000000002</v>
       </c>
@@ -23579,7 +23579,7 @@
         <v>3.0960000000000001</v>
       </c>
     </row>
-    <row r="777" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A777">
         <v>0.77500000000000002</v>
       </c>
@@ -23592,7 +23592,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="778" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A778">
         <v>0.77600000000000002</v>
       </c>
@@ -23605,7 +23605,7 @@
         <v>3.1040000000000001</v>
       </c>
     </row>
-    <row r="779" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A779">
         <v>0.77700000000000002</v>
       </c>
@@ -23618,7 +23618,7 @@
         <v>3.1080000000000001</v>
       </c>
     </row>
-    <row r="780" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A780">
         <v>0.77800000000000002</v>
       </c>
@@ -23631,7 +23631,7 @@
         <v>3.1120000000000001</v>
       </c>
     </row>
-    <row r="781" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A781">
         <v>0.77900000000000003</v>
       </c>
@@ -23644,7 +23644,7 @@
         <v>3.1160000000000001</v>
       </c>
     </row>
-    <row r="782" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A782">
         <v>0.78</v>
       </c>
@@ -23657,7 +23657,7 @@
         <v>3.12</v>
       </c>
     </row>
-    <row r="783" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A783">
         <v>0.78100000000000003</v>
       </c>
@@ -23670,7 +23670,7 @@
         <v>3.1240000000000001</v>
       </c>
     </row>
-    <row r="784" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A784">
         <v>0.78200000000000003</v>
       </c>
@@ -23683,7 +23683,7 @@
         <v>3.1280000000000001</v>
       </c>
     </row>
-    <row r="785" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A785">
         <v>0.78300000000000003</v>
       </c>
@@ -23696,7 +23696,7 @@
         <v>3.1320000000000001</v>
       </c>
     </row>
-    <row r="786" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A786">
         <v>0.78400000000000003</v>
       </c>
@@ -23709,7 +23709,7 @@
         <v>3.1360000000000001</v>
       </c>
     </row>
-    <row r="787" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A787">
         <v>0.78500000000000003</v>
       </c>
@@ -23722,7 +23722,7 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="788" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A788">
         <v>0.78600000000000003</v>
       </c>
@@ -23735,7 +23735,7 @@
         <v>3.1440000000000001</v>
       </c>
     </row>
-    <row r="789" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A789">
         <v>0.78700000000000003</v>
       </c>
@@ -23748,7 +23748,7 @@
         <v>3.1480000000000001</v>
       </c>
     </row>
-    <row r="790" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A790">
         <v>0.78800000000000003</v>
       </c>
@@ -23761,7 +23761,7 @@
         <v>3.1520000000000001</v>
       </c>
     </row>
-    <row r="791" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A791">
         <v>0.78900000000000003</v>
       </c>
@@ -23774,7 +23774,7 @@
         <v>3.1560000000000001</v>
       </c>
     </row>
-    <row r="792" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A792">
         <v>0.79</v>
       </c>
@@ -23787,7 +23787,7 @@
         <v>3.16</v>
       </c>
     </row>
-    <row r="793" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A793">
         <v>0.79100000000000004</v>
       </c>
@@ -23800,7 +23800,7 @@
         <v>3.1640000000000001</v>
       </c>
     </row>
-    <row r="794" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A794">
         <v>0.79200000000000004</v>
       </c>
@@ -23813,7 +23813,7 @@
         <v>3.1680000000000001</v>
       </c>
     </row>
-    <row r="795" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A795">
         <v>0.79300000000000004</v>
       </c>
@@ -23826,7 +23826,7 @@
         <v>3.1720000000000002</v>
       </c>
     </row>
-    <row r="796" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A796">
         <v>0.79400000000000004</v>
       </c>
@@ -23839,7 +23839,7 @@
         <v>3.1760000000000002</v>
       </c>
     </row>
-    <row r="797" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A797">
         <v>0.79500000000000004</v>
       </c>
@@ -23852,7 +23852,7 @@
         <v>3.18</v>
       </c>
     </row>
-    <row r="798" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A798">
         <v>0.79600000000000004</v>
       </c>
@@ -23865,7 +23865,7 @@
         <v>3.1840000000000002</v>
       </c>
     </row>
-    <row r="799" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A799">
         <v>0.79700000000000004</v>
       </c>
@@ -23878,7 +23878,7 @@
         <v>3.1880000000000002</v>
       </c>
     </row>
-    <row r="800" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A800">
         <v>0.79800000000000004</v>
       </c>
@@ -23891,7 +23891,7 @@
         <v>3.1920000000000002</v>
       </c>
     </row>
-    <row r="801" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A801">
         <v>0.79900000000000004</v>
       </c>
@@ -23904,7 +23904,7 @@
         <v>3.1960000000000002</v>
       </c>
     </row>
-    <row r="802" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A802">
         <v>0.8</v>
       </c>
@@ -23917,7 +23917,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="803" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A803">
         <v>0.80100000000000005</v>
       </c>
@@ -23930,7 +23930,7 @@
         <v>3.2040000000000002</v>
       </c>
     </row>
-    <row r="804" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A804">
         <v>0.80200000000000005</v>
       </c>
@@ -23943,7 +23943,7 @@
         <v>3.2080000000000002</v>
       </c>
     </row>
-    <row r="805" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A805">
         <v>0.80300000000000005</v>
       </c>
@@ -23956,7 +23956,7 @@
         <v>3.2120000000000002</v>
       </c>
     </row>
-    <row r="806" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A806">
         <v>0.80400000000000005</v>
       </c>
@@ -23969,7 +23969,7 @@
         <v>3.2160000000000002</v>
       </c>
     </row>
-    <row r="807" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A807">
         <v>0.80500000000000005</v>
       </c>
@@ -23982,7 +23982,7 @@
         <v>3.22</v>
       </c>
     </row>
-    <row r="808" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A808">
         <v>0.80600000000000005</v>
       </c>
@@ -23995,7 +23995,7 @@
         <v>3.2240000000000002</v>
       </c>
     </row>
-    <row r="809" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A809">
         <v>0.80700000000000005</v>
       </c>
@@ -24008,7 +24008,7 @@
         <v>3.2280000000000002</v>
       </c>
     </row>
-    <row r="810" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A810">
         <v>0.80800000000000005</v>
       </c>
@@ -24021,7 +24021,7 @@
         <v>3.2320000000000002</v>
       </c>
     </row>
-    <row r="811" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A811">
         <v>0.80900000000000005</v>
       </c>
@@ -24034,7 +24034,7 @@
         <v>3.2360000000000002</v>
       </c>
     </row>
-    <row r="812" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A812">
         <v>0.81</v>
       </c>
@@ -24047,7 +24047,7 @@
         <v>3.24</v>
       </c>
     </row>
-    <row r="813" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A813">
         <v>0.81100000000000005</v>
       </c>
@@ -24060,7 +24060,7 @@
         <v>3.2440000000000002</v>
       </c>
     </row>
-    <row r="814" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A814">
         <v>0.81200000000000006</v>
       </c>
@@ -24073,7 +24073,7 @@
         <v>3.2480000000000002</v>
       </c>
     </row>
-    <row r="815" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="815" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A815">
         <v>0.81299999999999994</v>
       </c>
@@ -24086,7 +24086,7 @@
         <v>3.2519999999999998</v>
       </c>
     </row>
-    <row r="816" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A816">
         <v>0.81399999999999995</v>
       </c>
@@ -24099,7 +24099,7 @@
         <v>3.2559999999999998</v>
       </c>
     </row>
-    <row r="817" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="817" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A817">
         <v>0.81499999999999995</v>
       </c>
@@ -24112,7 +24112,7 @@
         <v>3.26</v>
       </c>
     </row>
-    <row r="818" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="818" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A818">
         <v>0.81599999999999995</v>
       </c>
@@ -24125,7 +24125,7 @@
         <v>3.2639999999999998</v>
       </c>
     </row>
-    <row r="819" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A819">
         <v>0.81699999999999995</v>
       </c>
@@ -24138,7 +24138,7 @@
         <v>3.2679999999999998</v>
       </c>
     </row>
-    <row r="820" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A820">
         <v>0.81799999999999995</v>
       </c>
@@ -24151,7 +24151,7 @@
         <v>3.2719999999999998</v>
       </c>
     </row>
-    <row r="821" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="821" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A821">
         <v>0.81899999999999995</v>
       </c>
@@ -24164,7 +24164,7 @@
         <v>3.2759999999999998</v>
       </c>
     </row>
-    <row r="822" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="822" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A822">
         <v>0.82</v>
       </c>
@@ -24177,7 +24177,7 @@
         <v>3.28</v>
       </c>
     </row>
-    <row r="823" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="823" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A823">
         <v>0.82099999999999995</v>
       </c>
@@ -24190,7 +24190,7 @@
         <v>3.2839999999999998</v>
       </c>
     </row>
-    <row r="824" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A824">
         <v>0.82199999999999995</v>
       </c>
@@ -24203,7 +24203,7 @@
         <v>3.2879999999999998</v>
       </c>
     </row>
-    <row r="825" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A825">
         <v>0.82299999999999995</v>
       </c>
@@ -24216,7 +24216,7 @@
         <v>3.2919999999999998</v>
       </c>
     </row>
-    <row r="826" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="826" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A826">
         <v>0.82399999999999995</v>
       </c>
@@ -24229,7 +24229,7 @@
         <v>3.2959999999999998</v>
       </c>
     </row>
-    <row r="827" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="827" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A827">
         <v>0.82499999999999996</v>
       </c>
@@ -24242,7 +24242,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="828" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="828" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A828">
         <v>0.82599999999999996</v>
       </c>
@@ -24255,7 +24255,7 @@
         <v>3.3039999999999998</v>
       </c>
     </row>
-    <row r="829" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="829" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A829">
         <v>0.82699999999999996</v>
       </c>
@@ -24268,7 +24268,7 @@
         <v>3.3079999999999998</v>
       </c>
     </row>
-    <row r="830" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="830" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A830">
         <v>0.82799999999999996</v>
       </c>
@@ -24281,7 +24281,7 @@
         <v>3.3119999999999998</v>
       </c>
     </row>
-    <row r="831" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="831" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A831">
         <v>0.82899999999999996</v>
       </c>
@@ -24294,7 +24294,7 @@
         <v>3.3159999999999998</v>
       </c>
     </row>
-    <row r="832" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="832" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A832">
         <v>0.83</v>
       </c>
@@ -24307,7 +24307,7 @@
         <v>3.32</v>
       </c>
     </row>
-    <row r="833" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="833" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A833">
         <v>0.83099999999999996</v>
       </c>
@@ -24320,7 +24320,7 @@
         <v>3.3239999999999998</v>
       </c>
     </row>
-    <row r="834" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="834" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A834">
         <v>0.83199999999999996</v>
       </c>
@@ -24333,7 +24333,7 @@
         <v>3.3279999999999998</v>
       </c>
     </row>
-    <row r="835" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="835" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A835">
         <v>0.83299999999999996</v>
       </c>
@@ -24346,7 +24346,7 @@
         <v>3.3319999999999999</v>
       </c>
     </row>
-    <row r="836" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="836" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A836">
         <v>0.83399999999999996</v>
       </c>
@@ -24359,7 +24359,7 @@
         <v>3.3359999999999999</v>
       </c>
     </row>
-    <row r="837" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="837" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A837">
         <v>0.83499999999999996</v>
       </c>
@@ -24372,7 +24372,7 @@
         <v>3.34</v>
       </c>
     </row>
-    <row r="838" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="838" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A838">
         <v>0.83599999999999997</v>
       </c>
@@ -24385,7 +24385,7 @@
         <v>3.3439999999999999</v>
       </c>
     </row>
-    <row r="839" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="839" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A839">
         <v>0.83699999999999997</v>
       </c>
@@ -24398,7 +24398,7 @@
         <v>3.3479999999999999</v>
       </c>
     </row>
-    <row r="840" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="840" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A840">
         <v>0.83799999999999997</v>
       </c>
@@ -24411,7 +24411,7 @@
         <v>3.3519999999999999</v>
       </c>
     </row>
-    <row r="841" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="841" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A841">
         <v>0.83899999999999997</v>
       </c>
@@ -24424,7 +24424,7 @@
         <v>3.3559999999999999</v>
       </c>
     </row>
-    <row r="842" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="842" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A842">
         <v>0.84</v>
       </c>
@@ -24437,7 +24437,7 @@
         <v>3.36</v>
       </c>
     </row>
-    <row r="843" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="843" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A843">
         <v>0.84099999999999997</v>
       </c>
@@ -24450,7 +24450,7 @@
         <v>3.3639999999999999</v>
       </c>
     </row>
-    <row r="844" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="844" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A844">
         <v>0.84199999999999997</v>
       </c>
@@ -24463,7 +24463,7 @@
         <v>3.3679999999999999</v>
       </c>
     </row>
-    <row r="845" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="845" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A845">
         <v>0.84299999999999997</v>
       </c>
@@ -24476,7 +24476,7 @@
         <v>3.3719999999999999</v>
       </c>
     </row>
-    <row r="846" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="846" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A846">
         <v>0.84399999999999997</v>
       </c>
@@ -24489,7 +24489,7 @@
         <v>3.3759999999999999</v>
       </c>
     </row>
-    <row r="847" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="847" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A847">
         <v>0.84499999999999997</v>
       </c>
@@ -24502,7 +24502,7 @@
         <v>3.38</v>
       </c>
     </row>
-    <row r="848" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="848" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A848">
         <v>0.84599999999999997</v>
       </c>
@@ -24515,7 +24515,7 @@
         <v>3.3839999999999999</v>
       </c>
     </row>
-    <row r="849" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="849" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A849">
         <v>0.84699999999999998</v>
       </c>
@@ -24528,7 +24528,7 @@
         <v>3.3879999999999999</v>
       </c>
     </row>
-    <row r="850" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="850" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A850">
         <v>0.84799999999999998</v>
       </c>
@@ -24541,7 +24541,7 @@
         <v>3.3919999999999999</v>
       </c>
     </row>
-    <row r="851" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="851" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A851">
         <v>0.84899999999999998</v>
       </c>
@@ -24554,7 +24554,7 @@
         <v>3.3959999999999999</v>
       </c>
     </row>
-    <row r="852" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="852" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A852">
         <v>0.85</v>
       </c>
@@ -24567,7 +24567,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="853" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="853" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A853">
         <v>0.85099999999999998</v>
       </c>
@@ -24580,7 +24580,7 @@
         <v>3.4039999999999999</v>
       </c>
     </row>
-    <row r="854" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="854" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A854">
         <v>0.85199999999999998</v>
       </c>
@@ -24593,7 +24593,7 @@
         <v>3.4079999999999999</v>
       </c>
     </row>
-    <row r="855" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="855" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A855">
         <v>0.85299999999999998</v>
       </c>
@@ -24606,7 +24606,7 @@
         <v>3.4119999999999999</v>
       </c>
     </row>
-    <row r="856" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="856" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A856">
         <v>0.85399999999999998</v>
       </c>
@@ -24619,7 +24619,7 @@
         <v>3.4159999999999999</v>
       </c>
     </row>
-    <row r="857" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="857" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A857">
         <v>0.85499999999999998</v>
       </c>
@@ -24632,7 +24632,7 @@
         <v>3.42</v>
       </c>
     </row>
-    <row r="858" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="858" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A858">
         <v>0.85599999999999998</v>
       </c>
@@ -24645,7 +24645,7 @@
         <v>3.4239999999999999</v>
       </c>
     </row>
-    <row r="859" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="859" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A859">
         <v>0.85699999999999998</v>
       </c>
@@ -24658,7 +24658,7 @@
         <v>3.4279999999999999</v>
       </c>
     </row>
-    <row r="860" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="860" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A860">
         <v>0.85799999999999998</v>
       </c>
@@ -24671,7 +24671,7 @@
         <v>3.4319999999999999</v>
       </c>
     </row>
-    <row r="861" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="861" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A861">
         <v>0.85899999999999999</v>
       </c>
@@ -24684,7 +24684,7 @@
         <v>3.4359999999999999</v>
       </c>
     </row>
-    <row r="862" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="862" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A862">
         <v>0.86</v>
       </c>
@@ -24697,7 +24697,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="863" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="863" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A863">
         <v>0.86099999999999999</v>
       </c>
@@ -24710,7 +24710,7 @@
         <v>3.444</v>
       </c>
     </row>
-    <row r="864" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="864" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A864">
         <v>0.86199999999999999</v>
       </c>
@@ -24723,7 +24723,7 @@
         <v>3.448</v>
       </c>
     </row>
-    <row r="865" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="865" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A865">
         <v>0.86299999999999999</v>
       </c>
@@ -24736,7 +24736,7 @@
         <v>3.452</v>
       </c>
     </row>
-    <row r="866" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="866" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A866">
         <v>0.86399999999999999</v>
       </c>
@@ -24749,7 +24749,7 @@
         <v>3.456</v>
       </c>
     </row>
-    <row r="867" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="867" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A867">
         <v>0.86499999999999999</v>
       </c>
@@ -24762,7 +24762,7 @@
         <v>3.46</v>
       </c>
     </row>
-    <row r="868" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="868" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A868">
         <v>0.86599999999999999</v>
       </c>
@@ -24775,7 +24775,7 @@
         <v>3.464</v>
       </c>
     </row>
-    <row r="869" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="869" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A869">
         <v>0.86699999999999999</v>
       </c>
@@ -24788,7 +24788,7 @@
         <v>3.468</v>
       </c>
     </row>
-    <row r="870" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="870" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A870">
         <v>0.86799999999999999</v>
       </c>
@@ -24801,7 +24801,7 @@
         <v>3.472</v>
       </c>
     </row>
-    <row r="871" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="871" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A871">
         <v>0.86899999999999999</v>
       </c>
@@ -24814,7 +24814,7 @@
         <v>3.476</v>
       </c>
     </row>
-    <row r="872" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="872" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A872">
         <v>0.87</v>
       </c>
@@ -24827,7 +24827,7 @@
         <v>3.48</v>
       </c>
     </row>
-    <row r="873" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="873" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A873">
         <v>0.871</v>
       </c>
@@ -24840,7 +24840,7 @@
         <v>3.484</v>
       </c>
     </row>
-    <row r="874" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="874" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A874">
         <v>0.872</v>
       </c>
@@ -24853,7 +24853,7 @@
         <v>3.488</v>
       </c>
     </row>
-    <row r="875" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="875" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A875">
         <v>0.873</v>
       </c>
@@ -24866,7 +24866,7 @@
         <v>3.492</v>
       </c>
     </row>
-    <row r="876" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="876" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A876">
         <v>0.874</v>
       </c>
@@ -24879,7 +24879,7 @@
         <v>3.496</v>
       </c>
     </row>
-    <row r="877" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="877" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A877">
         <v>0.875</v>
       </c>
@@ -24892,7 +24892,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="878" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="878" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A878">
         <v>0.876</v>
       </c>
@@ -24905,7 +24905,7 @@
         <v>3.504</v>
       </c>
     </row>
-    <row r="879" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="879" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A879">
         <v>0.877</v>
       </c>
@@ -24918,7 +24918,7 @@
         <v>3.508</v>
       </c>
     </row>
-    <row r="880" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="880" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A880">
         <v>0.878</v>
       </c>
@@ -24931,7 +24931,7 @@
         <v>3.512</v>
       </c>
     </row>
-    <row r="881" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="881" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A881">
         <v>0.879</v>
       </c>
@@ -24944,7 +24944,7 @@
         <v>3.516</v>
       </c>
     </row>
-    <row r="882" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="882" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A882">
         <v>0.88</v>
       </c>
@@ -24957,7 +24957,7 @@
         <v>3.52</v>
       </c>
     </row>
-    <row r="883" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="883" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A883">
         <v>0.88100000000000001</v>
       </c>
@@ -24970,7 +24970,7 @@
         <v>3.524</v>
       </c>
     </row>
-    <row r="884" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="884" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A884">
         <v>0.88200000000000001</v>
       </c>
@@ -24983,7 +24983,7 @@
         <v>3.528</v>
       </c>
     </row>
-    <row r="885" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="885" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A885">
         <v>0.88300000000000001</v>
       </c>
@@ -24996,7 +24996,7 @@
         <v>3.532</v>
       </c>
     </row>
-    <row r="886" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="886" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A886">
         <v>0.88400000000000001</v>
       </c>
@@ -25009,7 +25009,7 @@
         <v>3.536</v>
       </c>
     </row>
-    <row r="887" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="887" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A887">
         <v>0.88500000000000001</v>
       </c>
@@ -25022,7 +25022,7 @@
         <v>3.54</v>
       </c>
     </row>
-    <row r="888" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="888" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A888">
         <v>0.88600000000000001</v>
       </c>
@@ -25035,7 +25035,7 @@
         <v>3.544</v>
       </c>
     </row>
-    <row r="889" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="889" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A889">
         <v>0.88700000000000001</v>
       </c>
@@ -25048,7 +25048,7 @@
         <v>3.548</v>
       </c>
     </row>
-    <row r="890" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="890" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A890">
         <v>0.88800000000000001</v>
       </c>
@@ -25061,7 +25061,7 @@
         <v>3.552</v>
       </c>
     </row>
-    <row r="891" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="891" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A891">
         <v>0.88900000000000001</v>
       </c>
@@ -25074,7 +25074,7 @@
         <v>3.556</v>
       </c>
     </row>
-    <row r="892" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="892" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A892">
         <v>0.89</v>
       </c>
@@ -25087,7 +25087,7 @@
         <v>3.56</v>
       </c>
     </row>
-    <row r="893" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="893" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A893">
         <v>0.89100000000000001</v>
       </c>
@@ -25100,7 +25100,7 @@
         <v>3.5640000000000001</v>
       </c>
     </row>
-    <row r="894" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="894" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A894">
         <v>0.89200000000000002</v>
       </c>
@@ -25113,7 +25113,7 @@
         <v>3.5680000000000001</v>
       </c>
     </row>
-    <row r="895" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="895" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A895">
         <v>0.89300000000000002</v>
       </c>
@@ -25126,7 +25126,7 @@
         <v>3.5720000000000001</v>
       </c>
     </row>
-    <row r="896" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="896" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A896">
         <v>0.89400000000000002</v>
       </c>
@@ -25139,7 +25139,7 @@
         <v>3.5760000000000001</v>
       </c>
     </row>
-    <row r="897" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="897" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A897">
         <v>0.89500000000000002</v>
       </c>
@@ -25152,7 +25152,7 @@
         <v>3.58</v>
       </c>
     </row>
-    <row r="898" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="898" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A898">
         <v>0.89600000000000002</v>
       </c>
@@ -25165,7 +25165,7 @@
         <v>3.5840000000000001</v>
       </c>
     </row>
-    <row r="899" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="899" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A899">
         <v>0.89700000000000002</v>
       </c>
@@ -25178,7 +25178,7 @@
         <v>3.5880000000000001</v>
       </c>
     </row>
-    <row r="900" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="900" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A900">
         <v>0.89800000000000002</v>
       </c>
@@ -25191,7 +25191,7 @@
         <v>3.5920000000000001</v>
       </c>
     </row>
-    <row r="901" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="901" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A901">
         <v>0.89900000000000002</v>
       </c>
@@ -25204,7 +25204,7 @@
         <v>3.5960000000000001</v>
       </c>
     </row>
-    <row r="902" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="902" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A902">
         <v>0.9</v>
       </c>
@@ -25217,7 +25217,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="903" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="903" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A903">
         <v>0.90100000000000002</v>
       </c>
@@ -25230,7 +25230,7 @@
         <v>3.6040000000000001</v>
       </c>
     </row>
-    <row r="904" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="904" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A904">
         <v>0.90200000000000002</v>
       </c>
@@ -25243,7 +25243,7 @@
         <v>3.6080000000000001</v>
       </c>
     </row>
-    <row r="905" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="905" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A905">
         <v>0.90300000000000002</v>
       </c>
@@ -25256,7 +25256,7 @@
         <v>3.6120000000000001</v>
       </c>
     </row>
-    <row r="906" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="906" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A906">
         <v>0.90400000000000003</v>
       </c>
@@ -25269,7 +25269,7 @@
         <v>3.6160000000000001</v>
       </c>
     </row>
-    <row r="907" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="907" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A907">
         <v>0.90500000000000003</v>
       </c>
@@ -25282,7 +25282,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="908" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="908" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A908">
         <v>0.90600000000000003</v>
       </c>
@@ -25295,7 +25295,7 @@
         <v>3.6240000000000001</v>
       </c>
     </row>
-    <row r="909" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="909" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A909">
         <v>0.90700000000000003</v>
       </c>
@@ -25308,7 +25308,7 @@
         <v>3.6280000000000001</v>
       </c>
     </row>
-    <row r="910" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="910" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A910">
         <v>0.90800000000000003</v>
       </c>
@@ -25321,7 +25321,7 @@
         <v>3.6320000000000001</v>
       </c>
     </row>
-    <row r="911" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="911" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A911">
         <v>0.90900000000000003</v>
       </c>
@@ -25334,7 +25334,7 @@
         <v>3.6360000000000001</v>
       </c>
     </row>
-    <row r="912" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="912" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A912">
         <v>0.91</v>
       </c>
@@ -25347,7 +25347,7 @@
         <v>3.64</v>
       </c>
     </row>
-    <row r="913" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="913" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A913">
         <v>0.91100000000000003</v>
       </c>
@@ -25360,7 +25360,7 @@
         <v>3.6440000000000001</v>
       </c>
     </row>
-    <row r="914" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="914" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A914">
         <v>0.91200000000000003</v>
       </c>
@@ -25373,7 +25373,7 @@
         <v>3.6480000000000001</v>
       </c>
     </row>
-    <row r="915" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="915" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A915">
         <v>0.91300000000000003</v>
       </c>
@@ -25386,7 +25386,7 @@
         <v>3.6520000000000001</v>
       </c>
     </row>
-    <row r="916" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="916" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A916">
         <v>0.91400000000000003</v>
       </c>
@@ -25399,7 +25399,7 @@
         <v>3.6560000000000001</v>
       </c>
     </row>
-    <row r="917" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="917" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A917">
         <v>0.91500000000000004</v>
       </c>
@@ -25412,7 +25412,7 @@
         <v>3.66</v>
       </c>
     </row>
-    <row r="918" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="918" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A918">
         <v>0.91600000000000004</v>
       </c>
@@ -25425,7 +25425,7 @@
         <v>3.6640000000000001</v>
       </c>
     </row>
-    <row r="919" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="919" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A919">
         <v>0.91700000000000004</v>
       </c>
@@ -25438,7 +25438,7 @@
         <v>3.6680000000000001</v>
       </c>
     </row>
-    <row r="920" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="920" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A920">
         <v>0.91800000000000004</v>
       </c>
@@ -25451,7 +25451,7 @@
         <v>3.6720000000000002</v>
       </c>
     </row>
-    <row r="921" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="921" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A921">
         <v>0.91900000000000004</v>
       </c>
@@ -25464,7 +25464,7 @@
         <v>3.6760000000000002</v>
       </c>
     </row>
-    <row r="922" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="922" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A922">
         <v>0.92</v>
       </c>
@@ -25477,7 +25477,7 @@
         <v>3.68</v>
       </c>
     </row>
-    <row r="923" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="923" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A923">
         <v>0.92100000000000004</v>
       </c>
@@ -25490,7 +25490,7 @@
         <v>3.6840000000000002</v>
       </c>
     </row>
-    <row r="924" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="924" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A924">
         <v>0.92200000000000004</v>
       </c>
@@ -25503,7 +25503,7 @@
         <v>3.6880000000000002</v>
       </c>
     </row>
-    <row r="925" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="925" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A925">
         <v>0.92300000000000004</v>
       </c>
@@ -25516,7 +25516,7 @@
         <v>3.6920000000000002</v>
       </c>
     </row>
-    <row r="926" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="926" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A926">
         <v>0.92400000000000004</v>
       </c>
@@ -25529,7 +25529,7 @@
         <v>3.6960000000000002</v>
       </c>
     </row>
-    <row r="927" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="927" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A927">
         <v>0.92500000000000004</v>
       </c>
@@ -25542,7 +25542,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="928" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="928" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A928">
         <v>0.92600000000000005</v>
       </c>
@@ -25555,7 +25555,7 @@
         <v>3.7040000000000002</v>
       </c>
     </row>
-    <row r="929" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="929" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A929">
         <v>0.92700000000000005</v>
       </c>
@@ -25568,7 +25568,7 @@
         <v>3.7080000000000002</v>
       </c>
     </row>
-    <row r="930" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="930" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A930">
         <v>0.92800000000000005</v>
       </c>
@@ -25581,7 +25581,7 @@
         <v>3.7120000000000002</v>
       </c>
     </row>
-    <row r="931" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="931" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A931">
         <v>0.92900000000000005</v>
       </c>
@@ -25594,7 +25594,7 @@
         <v>3.7160000000000002</v>
       </c>
     </row>
-    <row r="932" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="932" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A932">
         <v>0.93</v>
       </c>
@@ -25607,7 +25607,7 @@
         <v>3.72</v>
       </c>
     </row>
-    <row r="933" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="933" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A933">
         <v>0.93100000000000005</v>
       </c>
@@ -25620,7 +25620,7 @@
         <v>3.7240000000000002</v>
       </c>
     </row>
-    <row r="934" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="934" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A934">
         <v>0.93200000000000005</v>
       </c>
@@ -25633,7 +25633,7 @@
         <v>3.7280000000000002</v>
       </c>
     </row>
-    <row r="935" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="935" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A935">
         <v>0.93300000000000005</v>
       </c>
@@ -25646,7 +25646,7 @@
         <v>3.7320000000000002</v>
       </c>
     </row>
-    <row r="936" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="936" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A936">
         <v>0.93400000000000005</v>
       </c>
@@ -25659,7 +25659,7 @@
         <v>3.7360000000000002</v>
       </c>
     </row>
-    <row r="937" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="937" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A937">
         <v>0.93500000000000005</v>
       </c>
@@ -25672,7 +25672,7 @@
         <v>3.74</v>
       </c>
     </row>
-    <row r="938" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="938" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A938">
         <v>0.93600000000000005</v>
       </c>
@@ -25685,7 +25685,7 @@
         <v>3.7440000000000002</v>
       </c>
     </row>
-    <row r="939" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="939" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A939">
         <v>0.93700000000000006</v>
       </c>
@@ -25698,7 +25698,7 @@
         <v>3.7480000000000002</v>
       </c>
     </row>
-    <row r="940" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="940" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A940">
         <v>0.93799999999999994</v>
       </c>
@@ -25711,7 +25711,7 @@
         <v>3.7519999999999998</v>
       </c>
     </row>
-    <row r="941" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="941" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A941">
         <v>0.93899999999999995</v>
       </c>
@@ -25724,7 +25724,7 @@
         <v>3.7559999999999998</v>
       </c>
     </row>
-    <row r="942" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="942" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A942">
         <v>0.94</v>
       </c>
@@ -25737,7 +25737,7 @@
         <v>3.76</v>
       </c>
     </row>
-    <row r="943" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="943" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A943">
         <v>0.94099999999999995</v>
       </c>
@@ -25750,7 +25750,7 @@
         <v>3.7639999999999998</v>
       </c>
     </row>
-    <row r="944" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="944" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A944">
         <v>0.94199999999999995</v>
       </c>
@@ -25763,7 +25763,7 @@
         <v>3.7679999999999998</v>
       </c>
     </row>
-    <row r="945" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="945" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A945">
         <v>0.94299999999999995</v>
       </c>
@@ -25776,7 +25776,7 @@
         <v>3.7719999999999998</v>
       </c>
     </row>
-    <row r="946" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="946" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A946">
         <v>0.94399999999999995</v>
       </c>
@@ -25789,7 +25789,7 @@
         <v>3.7759999999999998</v>
       </c>
     </row>
-    <row r="947" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="947" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A947">
         <v>0.94499999999999995</v>
       </c>
@@ -25802,7 +25802,7 @@
         <v>3.78</v>
       </c>
     </row>
-    <row r="948" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="948" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A948">
         <v>0.94599999999999995</v>
       </c>
@@ -25815,7 +25815,7 @@
         <v>3.7839999999999998</v>
       </c>
     </row>
-    <row r="949" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="949" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A949">
         <v>0.94699999999999995</v>
       </c>
@@ -25828,7 +25828,7 @@
         <v>3.7879999999999998</v>
       </c>
     </row>
-    <row r="950" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="950" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A950">
         <v>0.94799999999999995</v>
       </c>
@@ -25841,7 +25841,7 @@
         <v>3.7919999999999998</v>
       </c>
     </row>
-    <row r="951" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="951" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A951">
         <v>0.94899999999999995</v>
       </c>
@@ -25854,7 +25854,7 @@
         <v>3.7959999999999998</v>
       </c>
     </row>
-    <row r="952" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="952" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A952">
         <v>0.95</v>
       </c>
@@ -25867,7 +25867,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="953" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="953" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A953">
         <v>0.95099999999999996</v>
       </c>
@@ -25880,7 +25880,7 @@
         <v>3.8039999999999998</v>
       </c>
     </row>
-    <row r="954" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="954" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A954">
         <v>0.95199999999999996</v>
       </c>
@@ -25893,7 +25893,7 @@
         <v>3.8079999999999998</v>
       </c>
     </row>
-    <row r="955" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="955" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A955">
         <v>0.95299999999999996</v>
       </c>
@@ -25906,7 +25906,7 @@
         <v>3.8119999999999998</v>
       </c>
     </row>
-    <row r="956" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="956" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A956">
         <v>0.95399999999999996</v>
       </c>
@@ -25919,7 +25919,7 @@
         <v>3.8159999999999998</v>
       </c>
     </row>
-    <row r="957" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="957" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A957">
         <v>0.95499999999999996</v>
       </c>
@@ -25932,7 +25932,7 @@
         <v>3.82</v>
       </c>
     </row>
-    <row r="958" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="958" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A958">
         <v>0.95599999999999996</v>
       </c>
@@ -25945,7 +25945,7 @@
         <v>3.8239999999999998</v>
       </c>
     </row>
-    <row r="959" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="959" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A959">
         <v>0.95699999999999996</v>
       </c>
@@ -25958,7 +25958,7 @@
         <v>3.8279999999999998</v>
       </c>
     </row>
-    <row r="960" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="960" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A960">
         <v>0.95799999999999996</v>
       </c>
@@ -25971,7 +25971,7 @@
         <v>3.8319999999999999</v>
       </c>
     </row>
-    <row r="961" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="961" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A961">
         <v>0.95899999999999996</v>
       </c>
@@ -25984,7 +25984,7 @@
         <v>3.8359999999999999</v>
       </c>
     </row>
-    <row r="962" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="962" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A962">
         <v>0.96</v>
       </c>
@@ -25997,7 +25997,7 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="963" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="963" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A963">
         <v>0.96099999999999997</v>
       </c>
@@ -26010,7 +26010,7 @@
         <v>3.8439999999999999</v>
       </c>
     </row>
-    <row r="964" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="964" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A964">
         <v>0.96199999999999997</v>
       </c>
@@ -26023,7 +26023,7 @@
         <v>3.8479999999999999</v>
       </c>
     </row>
-    <row r="965" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="965" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A965">
         <v>0.96299999999999997</v>
       </c>
@@ -26036,7 +26036,7 @@
         <v>3.8519999999999999</v>
       </c>
     </row>
-    <row r="966" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="966" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A966">
         <v>0.96399999999999997</v>
       </c>
@@ -26049,7 +26049,7 @@
         <v>3.8559999999999999</v>
       </c>
     </row>
-    <row r="967" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="967" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A967">
         <v>0.96499999999999997</v>
       </c>
@@ -26062,7 +26062,7 @@
         <v>3.86</v>
       </c>
     </row>
-    <row r="968" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="968" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A968">
         <v>0.96599999999999997</v>
       </c>
@@ -26075,7 +26075,7 @@
         <v>3.8639999999999999</v>
       </c>
     </row>
-    <row r="969" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="969" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A969">
         <v>0.96699999999999997</v>
       </c>
@@ -26088,7 +26088,7 @@
         <v>3.8679999999999999</v>
       </c>
     </row>
-    <row r="970" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="970" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A970">
         <v>0.96799999999999997</v>
       </c>
@@ -26101,7 +26101,7 @@
         <v>3.8719999999999999</v>
       </c>
     </row>
-    <row r="971" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="971" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A971">
         <v>0.96899999999999997</v>
       </c>
@@ -26114,7 +26114,7 @@
         <v>3.8759999999999999</v>
       </c>
     </row>
-    <row r="972" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="972" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A972">
         <v>0.97</v>
       </c>
@@ -26127,7 +26127,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="973" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="973" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A973">
         <v>0.97099999999999997</v>
       </c>
@@ -26140,7 +26140,7 @@
         <v>3.8839999999999999</v>
       </c>
     </row>
-    <row r="974" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="974" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A974">
         <v>0.97199999999999998</v>
       </c>
@@ -26153,7 +26153,7 @@
         <v>3.8879999999999999</v>
       </c>
     </row>
-    <row r="975" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="975" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A975">
         <v>0.97299999999999998</v>
       </c>
@@ -26166,7 +26166,7 @@
         <v>3.8919999999999999</v>
       </c>
     </row>
-    <row r="976" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="976" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A976">
         <v>0.97399999999999998</v>
       </c>
@@ -26179,7 +26179,7 @@
         <v>3.8959999999999999</v>
       </c>
     </row>
-    <row r="977" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="977" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A977">
         <v>0.97499999999999998</v>
       </c>
@@ -26192,7 +26192,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="978" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="978" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A978">
         <v>0.97599999999999998</v>
       </c>
@@ -26205,7 +26205,7 @@
         <v>3.9039999999999999</v>
       </c>
     </row>
-    <row r="979" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="979" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A979">
         <v>0.97699999999999998</v>
       </c>
@@ -26218,7 +26218,7 @@
         <v>3.9079999999999999</v>
       </c>
     </row>
-    <row r="980" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="980" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A980">
         <v>0.97799999999999998</v>
       </c>
@@ -26231,7 +26231,7 @@
         <v>3.9119999999999999</v>
       </c>
     </row>
-    <row r="981" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="981" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A981">
         <v>0.97899999999999998</v>
       </c>
@@ -26244,7 +26244,7 @@
         <v>3.9159999999999999</v>
       </c>
     </row>
-    <row r="982" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="982" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A982">
         <v>0.98</v>
       </c>
@@ -26257,7 +26257,7 @@
         <v>3.92</v>
       </c>
     </row>
-    <row r="983" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="983" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A983">
         <v>0.98099999999999998</v>
       </c>
@@ -26270,7 +26270,7 @@
         <v>3.9239999999999999</v>
       </c>
     </row>
-    <row r="984" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="984" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A984">
         <v>0.98199999999999998</v>
       </c>
@@ -26283,7 +26283,7 @@
         <v>3.9279999999999999</v>
       </c>
     </row>
-    <row r="985" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="985" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A985">
         <v>0.98299999999999998</v>
       </c>
@@ -26296,7 +26296,7 @@
         <v>3.9319999999999999</v>
       </c>
     </row>
-    <row r="986" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="986" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A986">
         <v>0.98399999999999999</v>
       </c>
@@ -26309,7 +26309,7 @@
         <v>3.9359999999999999</v>
       </c>
     </row>
-    <row r="987" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="987" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A987">
         <v>0.98499999999999999</v>
       </c>
@@ -26322,7 +26322,7 @@
         <v>3.94</v>
       </c>
     </row>
-    <row r="988" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="988" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A988">
         <v>0.98599999999999999</v>
       </c>
@@ -26335,7 +26335,7 @@
         <v>3.944</v>
       </c>
     </row>
-    <row r="989" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="989" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A989">
         <v>0.98699999999999999</v>
       </c>
@@ -26348,7 +26348,7 @@
         <v>3.948</v>
       </c>
     </row>
-    <row r="990" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="990" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A990">
         <v>0.98799999999999999</v>
       </c>
@@ -26361,7 +26361,7 @@
         <v>3.952</v>
       </c>
     </row>
-    <row r="991" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="991" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A991">
         <v>0.98899999999999999</v>
       </c>
@@ -26374,7 +26374,7 @@
         <v>3.956</v>
       </c>
     </row>
-    <row r="992" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="992" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A992">
         <v>0.99</v>
       </c>
@@ -26387,7 +26387,7 @@
         <v>3.96</v>
       </c>
     </row>
-    <row r="993" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="993" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A993">
         <v>0.99099999999999999</v>
       </c>
@@ -26400,7 +26400,7 @@
         <v>3.964</v>
       </c>
     </row>
-    <row r="994" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="994" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A994">
         <v>0.99199999999999999</v>
       </c>
@@ -26413,7 +26413,7 @@
         <v>3.968</v>
       </c>
     </row>
-    <row r="995" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="995" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A995">
         <v>0.99299999999999999</v>
       </c>
@@ -26426,7 +26426,7 @@
         <v>3.972</v>
       </c>
     </row>
-    <row r="996" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="996" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A996">
         <v>0.99399999999999999</v>
       </c>
@@ -26439,7 +26439,7 @@
         <v>3.976</v>
       </c>
     </row>
-    <row r="997" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="997" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A997">
         <v>0.995</v>
       </c>
@@ -26452,7 +26452,7 @@
         <v>3.98</v>
       </c>
     </row>
-    <row r="998" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="998" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A998">
         <v>0.996</v>
       </c>
@@ -26465,7 +26465,7 @@
         <v>3.984</v>
       </c>
     </row>
-    <row r="999" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="999" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A999">
         <v>0.997</v>
       </c>
@@ -26478,7 +26478,7 @@
         <v>3.988</v>
       </c>
     </row>
-    <row r="1000" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1000" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1000">
         <v>0.998</v>
       </c>
@@ -26491,7 +26491,7 @@
         <v>3.992</v>
       </c>
     </row>
-    <row r="1001" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1001" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1001">
         <v>0.999</v>
       </c>
@@ -26504,7 +26504,7 @@
         <v>3.996</v>
       </c>
     </row>
-    <row r="1002" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1002" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1002">
         <v>1</v>
       </c>
